--- a/Project_python/out/LDA/test.xlsx
+++ b/Project_python/out/LDA/test.xlsx
@@ -486,17 +486,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.14|x3: 0.03|x4: 0.03|x5: 0.08|x6: 0.01|x7: 0.07|x8: 0.08|x9: 0.10|x10: 0.07|x11: 0.07|x12: 0.05|x13: 0.04|x14: 0.08|x15: 0.05|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.17|x3: 0.00|x4: 0.00|x5: 0.04|x6: 0.00|x7: 0.03|x8: 0.16|x9: 0.20|x10: 0.03|x11: 0.04|x12: 0.03|x13: 0.04|x14: 0.07|x15: 0.03|x16: 0.16|x17: 0.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.20]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[2, 8, 9, 16]</t>
         </is>
       </c>
       <c r="G2" t="b">
@@ -522,24 +522,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.05|x3: 0.03|x4: 0.14|x5: 0.04|x6: 0.10|x7: 0.07|x8: 0.07|x9: 0.08|x10: 0.09|x11: 0.05|x12: 0.03|x13: 0.06|x14: 0.06|x15: 0.02|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.12|x2: 0.05|x3: 0.00|x4: 0.16|x5: 0.03|x6: 0.12|x7: 0.07|x8: 0.08|x9: 0.10|x10: 0.08|x11: 0.02|x12: 0.01|x13: 0.06|x14: 0.05|x15: 0.00|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[4, 6]</t>
+          <t>[1, 4, 6, 9]</t>
         </is>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,21 +558,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.14|x3: 0.02|x4: 0.05|x5: 0.04|x6: 0.08|x7: 0.06|x8: 0.05|x9: 0.04|x10: 0.08|x11: 0.07|x12: 0.05|x13: 0.05|x14: 0.10|x15: 0.03|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.16|x2: 0.19|x3: 0.00|x4: 0.05|x5: 0.03|x6: 0.08|x7: 0.06|x8: 0.04|x9: 0.04|x10: 0.07|x11: 0.04|x12: 0.05|x13: 0.05|x14: 0.10|x15: 0.00|x16: 0.03|x17: 0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.19]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[2, 14]</t>
+          <t>[1, 2, 14]</t>
         </is>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -594,24 +594,24 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.11|x3: 0.02|x4: 0.09|x5: 0.08|x6: 0.03|x7: 0.14|x8: 0.03|x9: 0.02|x10: 0.17|x11: 0.03|x12: 0.02|x13: 0.02|x14: 0.03|x15: 0.06|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.13|x2: 0.13|x3: 0.00|x4: 0.09|x5: 0.07|x6: 0.02|x7: 0.15|x8: 0.03|x9: 0.04|x10: 0.18|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.06|x16: 0.11|x17: 0.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[2, 7, 10]</t>
+          <t>[1, 2, 7, 10, 16]</t>
         </is>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -630,24 +630,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.09|x3: 0.05|x4: 0.05|x5: 0.04|x6: 0.09|x7: 0.05|x8: 0.09|x9: 0.08|x10: 0.06|x11: 0.05|x12: 0.08|x13: 0.10|x14: 0.04|x15: 0.03|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.11|x3: 0.02|x4: 0.04|x5: 0.03|x6: 0.11|x7: 0.04|x8: 0.12|x9: 0.12|x10: 0.05|x11: 0.02|x12: 0.09|x13: 0.14|x14: 0.02|x15: 0.00|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>[0.00, 0.06, 0.14]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2, 6, 8, 9, 13]</t>
         </is>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,17 +666,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.06|x3: 0.02|x4: 0.17|x5: 0.08|x6: 0.02|x7: 0.03|x8: 0.10|x9: 0.11|x10: 0.04|x11: 0.04|x12: 0.04|x13: 0.02|x14: 0.05|x15: 0.07|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.13|x2: 0.07|x3: 0.01|x4: 0.20|x5: 0.08|x6: 0.00|x7: 0.02|x8: 0.10|x9: 0.13|x10: 0.02|x11: 0.02|x12: 0.03|x13: 0.00|x14: 0.03|x15: 0.06|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.20]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[4, 9]</t>
+          <t>[1, 4, 8, 9]</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -702,17 +702,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.11|x3: 0.02|x4: 0.06|x5: 0.04|x6: 0.09|x7: 0.05|x8: 0.09|x9: 0.10|x10: 0.06|x11: 0.04|x12: 0.06|x13: 0.01|x14: 0.07|x15: 0.10|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.14|x3: 0.00|x4: 0.05|x5: 0.01|x6: 0.10|x7: 0.04|x8: 0.13|x9: 0.15|x10: 0.05|x11: 0.01|x12: 0.06|x13: 0.00|x14: 0.06|x15: 0.10|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[2, 9, 15]</t>
+          <t>[2, 8, 9]</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -738,17 +738,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>x1: 0.11|x2: 0.02|x3: 0.04|x4: 0.06|x5: 0.08|x6: 0.02|x7: 0.03|x8: 0.07|x9: 0.07|x10: 0.04|x11: 0.05|x12: 0.03|x13: 0.15|x14: 0.09|x15: 0.05|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.19|x2: 0.00|x3: 0.01|x4: 0.05|x5: 0.09|x6: 0.00|x7: 0.02|x8: 0.07|x9: 0.09|x10: 0.02|x11: 0.01|x12: 0.01|x13: 0.21|x14: 0.09|x15: 0.04|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[1, 13]</t>
+          <t>[1, 13, 16]</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -774,17 +774,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.08|x3: 0.02|x4: 0.03|x5: 0.04|x6: 0.11|x7: 0.04|x8: 0.09|x9: 0.10|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.02|x14: 0.10|x15: 0.08|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.14|x2: 0.10|x3: 0.00|x4: 0.02|x5: 0.03|x6: 0.13|x7: 0.03|x8: 0.09|x9: 0.13|x10: 0.03|x11: 0.05|x12: 0.04|x13: 0.00|x14: 0.09|x15: 0.07|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.14]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[6, 9]</t>
+          <t>[1, 6, 9]</t>
         </is>
       </c>
       <c r="G10" t="b">
@@ -810,17 +810,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.17|x3: 0.10|x4: 0.08|x5: 0.07|x6: 0.02|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.04|x12: 0.04|x13: 0.02|x14: 0.04|x15: 0.11|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.25|x3: 0.11|x4: 0.09|x5: 0.06|x6: 0.00|x7: 0.04|x8: 0.07|x9: 0.09|x10: 0.05|x11: 0.01|x12: 0.03|x13: 0.00|x14: 0.03|x15: 0.10|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.25]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[2, 3, 15]</t>
+          <t>[2, 3]</t>
         </is>
       </c>
       <c r="G11" t="b">
@@ -846,17 +846,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.13|x3: 0.06|x4: 0.10|x5: 0.04|x6: 0.05|x7: 0.06|x8: 0.05|x9: 0.05|x10: 0.08|x11: 0.07|x12: 0.06|x13: 0.02|x14: 0.05|x15: 0.10|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.18|x3: 0.04|x4: 0.11|x5: 0.01|x6: 0.04|x7: 0.05|x8: 0.07|x9: 0.08|x10: 0.06|x11: 0.06|x12: 0.06|x13: 0.00|x14: 0.04|x15: 0.10|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[2, 4, 15]</t>
+          <t>[2, 4]</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -882,12 +882,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.13|x3: 0.07|x4: 0.04|x5: 0.05|x6: 0.02|x7: 0.03|x8: 0.08|x9: 0.06|x10: 0.03|x11: 0.05|x12: 0.12|x13: 0.02|x14: 0.16|x15: 0.03|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.18|x3: 0.07|x4: 0.03|x5: 0.04|x6: 0.00|x7: 0.02|x8: 0.09|x9: 0.06|x10: 0.02|x11: 0.04|x12: 0.15|x13: 0.00|x14: 0.18|x15: 0.00|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -918,17 +918,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.11|x3: 0.13|x4: 0.18|x5: 0.03|x6: 0.04|x7: 0.04|x8: 0.08|x9: 0.08|x10: 0.04|x11: 0.03|x12: 0.06|x13: 0.03|x14: 0.01|x15: 0.05|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.14|x2: 0.14|x3: 0.12|x4: 0.20|x5: 0.00|x6: 0.02|x7: 0.02|x8: 0.10|x9: 0.09|x10: 0.03|x11: 0.00|x12: 0.07|x13: 0.02|x14: 0.00|x15: 0.03|x16: 0.02|x17: 0.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.20]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[2, 3, 4]</t>
+          <t>[1, 2, 3, 4]</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -954,12 +954,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.04|x3: 0.25|x4: 0.01|x5: 0.04|x6: 0.05|x7: 0.07|x8: 0.10|x9: 0.12|x10: 0.07|x11: 0.06|x12: 0.05|x13: 0.01|x14: 0.05|x15: 0.02|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.03|x3: 0.26|x4: 0.00|x5: 0.04|x6: 0.06|x7: 0.06|x8: 0.13|x9: 0.15|x10: 0.07|x11: 0.04|x12: 0.05|x13: 0.00|x14: 0.04|x15: 0.00|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.25]</t>
+          <t>[0.00, 0.06, 0.26]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -990,17 +990,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.04|x3: 0.29|x4: 0.01|x5: 0.04|x6: 0.01|x7: 0.07|x8: 0.06|x9: 0.08|x10: 0.06|x11: 0.08|x12: 0.05|x13: 0.08|x14: 0.06|x15: 0.03|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.04|x3: 0.32|x4: 0.00|x5: 0.03|x6: 0.00|x7: 0.04|x8: 0.08|x9: 0.10|x10: 0.05|x11: 0.07|x12: 0.05|x13: 0.10|x14: 0.05|x15: 0.00|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.29]</t>
+          <t>[0.00, 0.06, 0.32]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 9]</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1026,17 +1026,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.05|x3: 0.04|x4: 0.20|x5: 0.09|x6: 0.05|x7: 0.02|x8: 0.08|x9: 0.07|x10: 0.03|x11: 0.04|x12: 0.06|x13: 0.06|x14: 0.04|x15: 0.02|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.13|x2: 0.05|x3: 0.02|x4: 0.21|x5: 0.10|x6: 0.03|x7: 0.01|x8: 0.08|x9: 0.07|x10: 0.01|x11: 0.01|x12: 0.08|x13: 0.08|x14: 0.02|x15: 0.00|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.20]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[1, 4]</t>
         </is>
       </c>
       <c r="G17" t="b">
@@ -1062,17 +1062,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.04|x3: 0.09|x4: 0.10|x5: 0.03|x6: 0.08|x7: 0.05|x8: 0.08|x9: 0.08|x10: 0.04|x11: 0.04|x12: 0.09|x13: 0.09|x14: 0.07|x15: 0.02|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.03|x3: 0.07|x4: 0.11|x5: 0.02|x6: 0.08|x7: 0.03|x8: 0.11|x9: 0.09|x10: 0.04|x11: 0.02|x12: 0.12|x13: 0.13|x14: 0.06|x15: 0.00|x16: 0.03|x17: 0.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[4, 8, 12, 13]</t>
         </is>
       </c>
       <c r="G18" t="b">
@@ -1098,17 +1098,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.04|x3: 0.06|x4: 0.15|x5: 0.04|x6: 0.02|x7: 0.07|x8: 0.09|x9: 0.11|x10: 0.08|x11: 0.05|x12: 0.05|x13: 0.12|x14: 0.04|x15: 0.02|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.04|x3: 0.04|x4: 0.17|x5: 0.03|x6: 0.00|x7: 0.07|x8: 0.12|x9: 0.14|x10: 0.08|x11: 0.01|x12: 0.05|x13: 0.17|x14: 0.03|x15: 0.00|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[4, 9, 13]</t>
+          <t>[4, 8, 9, 13]</t>
         </is>
       </c>
       <c r="G19" t="b">
@@ -1134,17 +1134,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.01|x3: 0.13|x4: 0.01|x5: 0.02|x6: 0.09|x7: 0.06|x8: 0.04|x9: 0.04|x10: 0.06|x11: 0.05|x12: 0.05|x13: 0.16|x14: 0.12|x15: 0.05|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.00|x3: 0.11|x4: 0.00|x5: 0.01|x6: 0.10|x7: 0.04|x8: 0.05|x9: 0.06|x10: 0.05|x11: 0.02|x12: 0.04|x13: 0.23|x14: 0.12|x15: 0.04|x16: 0.03|x17: 0.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.23]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[3, 13, 14]</t>
+          <t>[3, 6, 13, 14]</t>
         </is>
       </c>
       <c r="G20" t="b">
@@ -1170,17 +1170,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.12|x3: 0.11|x4: 0.13|x5: 0.12|x6: 0.02|x7: 0.03|x8: 0.06|x9: 0.04|x10: 0.03|x11: 0.03|x12: 0.07|x13: 0.08|x14: 0.04|x15: 0.03|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.15|x3: 0.10|x4: 0.15|x5: 0.13|x6: 0.00|x7: 0.02|x8: 0.06|x9: 0.03|x10: 0.03|x11: 0.01|x12: 0.09|x13: 0.11|x14: 0.02|x15: 0.00|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 5]</t>
+          <t>[2, 3, 4, 5, 13]</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1206,12 +1206,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>x1: 0.14|x2: 0.02|x3: 0.14|x4: 0.08|x5: 0.03|x6: 0.02|x7: 0.01|x8: 0.08|x9: 0.06|x10: 0.03|x11: 0.03|x12: 0.07|x13: 0.05|x14: 0.02|x15: 0.14|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.28|x2: 0.00|x3: 0.13|x4: 0.07|x5: 0.03|x6: 0.00|x7: 0.00|x8: 0.08|x9: 0.07|x10: 0.00|x11: 0.00|x12: 0.08|x13: 0.06|x14: 0.00|x15: 0.16|x16: 0.03|x17: 0.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.28]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1242,12 +1242,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>x1: 0.13|x2: 0.02|x3: 0.07|x4: 0.08|x5: 0.05|x6: 0.02|x7: 0.02|x8: 0.14|x9: 0.16|x10: 0.04|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.02|x15: 0.01|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.27|x2: 0.00|x3: 0.05|x4: 0.08|x5: 0.06|x6: 0.00|x7: 0.01|x8: 0.15|x9: 0.19|x10: 0.01|x11: 0.00|x12: 0.04|x13: 0.07|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.27]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.02|x3: 0.03|x4: 0.08|x5: 0.04|x6: 0.01|x7: 0.08|x8: 0.10|x9: 0.11|x10: 0.09|x11: 0.10|x12: 0.08|x13: 0.07|x14: 0.09|x15: 0.02|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.00|x3: 0.01|x4: 0.09|x5: 0.04|x6: 0.00|x7: 0.07|x8: 0.12|x9: 0.14|x10: 0.08|x11: 0.08|x12: 0.08|x13: 0.08|x14: 0.09|x15: 0.00|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.14]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[8, 9]</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.01|x3: 0.24|x4: 0.08|x5: 0.04|x6: 0.10|x7: 0.02|x8: 0.08|x9: 0.11|x10: 0.01|x11: 0.05|x12: 0.03|x13: 0.10|x14: 0.05|x15: 0.03|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.08|x5: 0.04|x6: 0.11|x7: 0.00|x8: 0.10|x9: 0.13|x10: 0.00|x11: 0.02|x12: 0.02|x13: 0.14|x14: 0.04|x15: 0.00|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[3, 9, 13]</t>
+          <t>[3, 6, 9, 13]</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1350,24 +1350,24 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>x1: 0.12|x2: 0.02|x3: 0.11|x4: 0.02|x5: 0.05|x6: 0.06|x7: 0.06|x8: 0.09|x9: 0.09|x10: 0.07|x11: 0.06|x12: 0.07|x13: 0.02|x14: 0.07|x15: 0.02|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.26|x2: 0.00|x3: 0.10|x4: 0.00|x5: 0.05|x6: 0.06|x7: 0.05|x8: 0.09|x9: 0.10|x10: 0.06|x11: 0.03|x12: 0.06|x13: 0.00|x14: 0.06|x15: 0.00|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.26]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[1, 9]</t>
         </is>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1386,12 +1386,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.02|x3: 0.09|x4: 0.03|x5: 0.06|x6: 0.01|x7: 0.08|x8: 0.13|x9: 0.15|x10: 0.09|x11: 0.05|x12: 0.07|x13: 0.02|x14: 0.06|x15: 0.02|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.00|x3: 0.09|x4: 0.03|x5: 0.07|x6: 0.00|x7: 0.08|x8: 0.15|x9: 0.18|x10: 0.09|x11: 0.03|x12: 0.07|x13: 0.00|x14: 0.05|x15: 0.00|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1422,17 +1422,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.23|x3: 0.13|x4: 0.05|x5: 0.04|x6: 0.02|x7: 0.04|x8: 0.10|x9: 0.10|x10: 0.04|x11: 0.05|x12: 0.08|x13: 0.02|x14: 0.02|x15: 0.06|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.32|x3: 0.13|x4: 0.04|x5: 0.00|x6: 0.00|x7: 0.02|x8: 0.14|x9: 0.14|x10: 0.02|x11: 0.02|x12: 0.09|x13: 0.00|x14: 0.01|x15: 0.02|x16: 0.03|x17: 0.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.23]</t>
+          <t>[0.00, 0.06, 0.32]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[2, 3, 8]</t>
+          <t>[2, 3, 8, 9]</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1458,17 +1458,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.07|x3: 0.39|x4: 0.10|x5: 0.04|x6: 0.02|x7: 0.04|x8: 0.06|x9: 0.04|x10: 0.02|x11: 0.01|x12: 0.07|x13: 0.01|x14: 0.01|x15: 0.04|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.07|x3: 0.43|x4: 0.10|x5: 0.04|x6: 0.00|x7: 0.01|x8: 0.07|x9: 0.05|x10: 0.02|x11: 0.00|x12: 0.10|x13: 0.00|x14: 0.00|x15: 0.02|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.39]</t>
+          <t>[0.00, 0.06, 0.43]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1494,12 +1494,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.10|x3: 0.14|x4: 0.03|x5: 0.05|x6: 0.01|x7: 0.02|x8: 0.05|x9: 0.05|x10: 0.01|x11: 0.05|x12: 0.04|x13: 0.15|x14: 0.05|x15: 0.14|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.14|x3: 0.13|x4: 0.02|x5: 0.04|x6: 0.00|x7: 0.00|x8: 0.05|x9: 0.06|x10: 0.00|x11: 0.02|x12: 0.04|x13: 0.22|x14: 0.04|x15: 0.14|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.22]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1530,17 +1530,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.07|x3: 0.03|x4: 0.15|x5: 0.03|x6: 0.12|x7: 0.07|x8: 0.04|x9: 0.01|x10: 0.08|x11: 0.02|x12: 0.08|x13: 0.05|x14: 0.03|x15: 0.15|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.08|x3: 0.00|x4: 0.17|x5: 0.02|x6: 0.14|x7: 0.07|x8: 0.05|x9: 0.00|x10: 0.09|x11: 0.00|x12: 0.11|x13: 0.06|x14: 0.00|x15: 0.18|x16: 0.02|x17: 0.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[4, 6, 15]</t>
+          <t>[4, 6, 12, 15]</t>
         </is>
       </c>
       <c r="G31" t="b">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.02|x3: 0.12|x4: 0.25|x5: 0.11|x6: 0.09|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.02|x12: 0.03|x13: 0.01|x14: 0.03|x15: 0.01|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.12|x4: 0.28|x5: 0.11|x6: 0.09|x7: 0.03|x8: 0.09|x9: 0.10|x10: 0.04|x11: 0.00|x12: 0.02|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.11|x17: 0.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.25]</t>
+          <t>[0.00, 0.06, 0.28]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[3, 4, 5]</t>
+          <t>[3, 4, 5, 9, 16]</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -1602,17 +1602,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.02|x3: 0.07|x4: 0.10|x5: 0.09|x6: 0.04|x7: 0.03|x8: 0.13|x9: 0.14|x10: 0.04|x11: 0.05|x12: 0.04|x13: 0.01|x14: 0.07|x15: 0.01|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.19|x2: 0.00|x3: 0.06|x4: 0.10|x5: 0.08|x6: 0.04|x7: 0.00|x8: 0.18|x9: 0.23|x10: 0.00|x11: 0.01|x12: 0.01|x13: 0.00|x14: 0.02|x15: 0.00|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.23]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[4, 8, 9]</t>
+          <t>[1, 8, 9]</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -1638,17 +1638,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.13|x3: 0.25|x4: 0.02|x5: 0.09|x6: 0.01|x7: 0.04|x8: 0.05|x9: 0.06|x10: 0.04|x11: 0.03|x12: 0.02|x13: 0.04|x14: 0.06|x15: 0.03|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.17|x3: 0.26|x4: 0.00|x5: 0.06|x6: 0.00|x7: 0.00|x8: 0.11|x9: 0.14|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.05|x14: 0.05|x15: 0.00|x16: 0.15|x17: 0.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.25]</t>
+          <t>[0.00, 0.06, 0.26]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[2, 3, 8, 9, 16]</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -1674,12 +1674,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.07|x3: 0.30|x4: 0.14|x5: 0.02|x6: 0.02|x7: 0.03|x8: 0.06|x9: 0.05|x10: 0.02|x11: 0.06|x12: 0.07|x13: 0.06|x14: 0.03|x15: 0.03|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.08|x3: 0.32|x4: 0.15|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.07|x9: 0.05|x10: 0.00|x11: 0.05|x12: 0.08|x13: 0.07|x14: 0.02|x15: 0.00|x16: 0.01|x17: 0.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.30]</t>
+          <t>[0.00, 0.06, 0.32]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1710,12 +1710,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>x1: 0.11|x2: 0.11|x3: 0.11|x4: 0.09|x5: 0.05|x6: 0.02|x7: 0.04|x8: 0.05|x9: 0.03|x10: 0.06|x11: 0.04|x12: 0.05|x13: 0.04|x14: 0.07|x15: 0.04|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.21|x2: 0.15|x3: 0.10|x4: 0.09|x5: 0.03|x6: 0.00|x7: 0.03|x8: 0.05|x9: 0.04|x10: 0.03|x11: 0.01|x12: 0.05|x13: 0.04|x14: 0.07|x15: 0.02|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1746,17 +1746,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.02|x3: 0.03|x4: 0.18|x5: 0.11|x6: 0.04|x7: 0.06|x8: 0.07|x9: 0.07|x10: 0.07|x11: 0.02|x12: 0.04|x13: 0.01|x14: 0.05|x15: 0.09|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.00|x3: 0.03|x4: 0.21|x5: 0.13|x6: 0.03|x7: 0.06|x8: 0.07|x9: 0.07|x10: 0.07|x11: 0.00|x12: 0.03|x13: 0.00|x14: 0.03|x15: 0.11|x16: 0.11|x17: 0.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[4, 5, 16]</t>
+          <t>[4, 5, 15, 16]</t>
         </is>
       </c>
       <c r="G37" t="b">
@@ -1782,17 +1782,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.07|x3: 0.21|x4: 0.01|x5: 0.08|x6: 0.03|x7: 0.08|x8: 0.04|x9: 0.05|x10: 0.10|x11: 0.07|x12: 0.04|x13: 0.01|x14: 0.02|x15: 0.06|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.09|x3: 0.22|x4: 0.00|x5: 0.09|x6: 0.03|x7: 0.08|x8: 0.04|x9: 0.05|x10: 0.10|x11: 0.07|x12: 0.02|x13: 0.00|x14: 0.00|x15: 0.06|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.21]</t>
+          <t>[0.00, 0.06, 0.22]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 16]</t>
         </is>
       </c>
       <c r="G38" t="b">
@@ -1818,24 +1818,24 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.15|x3: 0.13|x4: 0.03|x5: 0.05|x6: 0.01|x7: 0.04|x8: 0.11|x9: 0.10|x10: 0.04|x11: 0.07|x12: 0.11|x13: 0.01|x14: 0.02|x15: 0.05|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.16|x3: 0.09|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.13|x10: 0.00|x11: 0.08|x12: 0.14|x13: 0.09|x14: 0.05|x15: 0.00|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[2, 3, 8, 12]</t>
+          <t>[2, 8, 9, 12]</t>
         </is>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1854,17 +1854,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.08|x3: 0.02|x4: 0.09|x5: 0.11|x6: 0.05|x7: 0.04|x8: 0.09|x9: 0.11|x10: 0.06|x11: 0.04|x12: 0.02|x13: 0.05|x14: 0.03|x15: 0.02|x16: 0.13|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.09|x3: 0.00|x4: 0.08|x5: 0.11|x6: 0.04|x7: 0.03|x8: 0.11|x9: 0.15|x10: 0.04|x11: 0.00|x12: 0.00|x13: 0.06|x14: 0.00|x15: 0.00|x16: 0.16|x17: 0.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[5, 9, 16]</t>
+          <t>[5, 8, 9, 16]</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -1890,17 +1890,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.04|x3: 0.19|x4: 0.11|x5: 0.02|x6: 0.02|x7: 0.07|x8: 0.06|x9: 0.06|x10: 0.08|x11: 0.04|x12: 0.04|x13: 0.02|x14: 0.12|x15: 0.02|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.13|x2: 0.04|x3: 0.20|x4: 0.11|x5: 0.00|x6: 0.00|x7: 0.06|x8: 0.08|x9: 0.09|x10: 0.07|x11: 0.02|x12: 0.03|x13: 0.00|x14: 0.13|x15: 0.00|x16: 0.03|x17: 0.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.20]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[3, 4, 14]</t>
+          <t>[1, 3, 4, 14]</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -1926,17 +1926,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.09|x3: 0.13|x4: 0.08|x5: 0.07|x6: 0.02|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.06|x11: 0.07|x12: 0.06|x13: 0.05|x14: 0.04|x15: 0.03|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.15|x2: 0.11|x3: 0.12|x4: 0.08|x5: 0.07|x6: 0.00|x7: 0.03|x8: 0.06|x9: 0.06|x10: 0.03|x11: 0.05|x12: 0.06|x13: 0.05|x14: 0.03|x15: 0.00|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[1, 2, 3]</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -1962,17 +1962,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.05|x3: 0.21|x4: 0.09|x5: 0.07|x6: 0.02|x7: 0.05|x8: 0.03|x9: 0.03|x10: 0.05|x11: 0.08|x12: 0.07|x13: 0.05|x14: 0.08|x15: 0.03|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.05|x3: 0.22|x4: 0.09|x5: 0.06|x6: 0.00|x7: 0.02|x8: 0.06|x9: 0.06|x10: 0.03|x11: 0.08|x12: 0.08|x13: 0.06|x14: 0.08|x15: 0.00|x16: 0.11|x17: 0.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.21]</t>
+          <t>[0.00, 0.06, 0.22]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 16]</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -1998,17 +1998,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.14|x3: 0.03|x4: 0.02|x5: 0.13|x6: 0.02|x7: 0.07|x8: 0.07|x9: 0.04|x10: 0.09|x11: 0.03|x12: 0.10|x13: 0.02|x14: 0.03|x15: 0.02|x16: 0.15|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.17|x3: 0.01|x4: 0.00|x5: 0.14|x6: 0.00|x7: 0.06|x8: 0.08|x9: 0.04|x10: 0.07|x11: 0.00|x12: 0.12|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.18|x17: 0.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[2, 5, 16]</t>
+          <t>[1, 2, 5, 12, 16]</t>
         </is>
       </c>
       <c r="G44" t="b">
@@ -2034,17 +2034,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.02|x3: 0.03|x4: 0.07|x5: 0.14|x6: 0.08|x7: 0.06|x8: 0.05|x9: 0.06|x10: 0.07|x11: 0.06|x12: 0.04|x13: 0.01|x14: 0.10|x15: 0.05|x16: 0.14|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.06|x5: 0.15|x6: 0.08|x7: 0.04|x8: 0.08|x9: 0.10|x10: 0.05|x11: 0.05|x12: 0.03|x13: 0.00|x14: 0.08|x15: 0.05|x16: 0.19|x17: 0.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.19]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[5, 14, 16]</t>
+          <t>[5, 9, 16]</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2070,17 +2070,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.03|x3: 0.04|x4: 0.04|x5: 0.05|x6: 0.04|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.06|x11: 0.05|x12: 0.05|x13: 0.16|x14: 0.04|x15: 0.12|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.14|x2: 0.03|x3: 0.00|x4: 0.03|x5: 0.05|x6: 0.03|x7: 0.04|x8: 0.06|x9: 0.06|x10: 0.04|x11: 0.01|x12: 0.05|x13: 0.23|x14: 0.02|x15: 0.13|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.23]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[13, 15]</t>
+          <t>[1, 13, 15]</t>
         </is>
       </c>
       <c r="G46" t="b">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.10|x3: 0.13|x4: 0.12|x5: 0.03|x6: 0.02|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.06|x12: 0.06|x13: 0.08|x14: 0.06|x15: 0.03|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.13|x3: 0.12|x4: 0.13|x5: 0.00|x6: 0.00|x7: 0.02|x8: 0.10|x9: 0.11|x10: 0.03|x11: 0.03|x12: 0.06|x13: 0.10|x14: 0.06|x15: 0.00|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[2, 3, 4, 8, 9, 13]</t>
         </is>
       </c>
       <c r="G47" t="b">
@@ -2142,17 +2142,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>x1: 0.14|x2: 0.07|x3: 0.12|x4: 0.02|x5: 0.05|x6: 0.06|x7: 0.03|x8: 0.10|x9: 0.10|x10: 0.06|x11: 0.05|x12: 0.03|x13: 0.02|x14: 0.09|x15: 0.02|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.29|x2: 0.08|x3: 0.12|x4: 0.00|x5: 0.05|x6: 0.07|x7: 0.03|x8: 0.09|x9: 0.12|x10: 0.03|x11: 0.01|x12: 0.01|x13: 0.00|x14: 0.09|x15: 0.00|x16: 0.02|x17: 0.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.29]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[1, 3, 9]</t>
         </is>
       </c>
       <c r="G48" t="b">
@@ -2178,24 +2178,24 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.02|x3: 0.10|x4: 0.11|x5: 0.05|x6: 0.19|x7: 0.02|x8: 0.05|x9: 0.02|x10: 0.02|x11: 0.03|x12: 0.11|x13: 0.03|x14: 0.13|x15: 0.01|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.04|x3: 0.08|x4: 0.13|x5: 0.05|x6: 0.23|x7: 0.00|x8: 0.06|x9: 0.00|x10: 0.00|x11: 0.03|x12: 0.14|x13: 0.03|x14: 0.11|x15: 0.00|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.23]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[3, 4, 6, 12, 14]</t>
+          <t>[4, 6, 12, 14]</t>
         </is>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2214,17 +2214,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.02|x3: 0.02|x4: 0.16|x5: 0.07|x6: 0.11|x7: 0.04|x8: 0.08|x9: 0.08|x10: 0.04|x11: 0.04|x12: 0.07|x13: 0.06|x14: 0.10|x15: 0.01|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.00|x3: 0.00|x4: 0.18|x5: 0.07|x6: 0.11|x7: 0.03|x8: 0.09|x9: 0.09|x10: 0.04|x11: 0.02|x12: 0.07|x13: 0.08|x14: 0.04|x15: 0.00|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[4, 6, 14]</t>
+          <t>[4, 6]</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -2250,17 +2250,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.12|x3: 0.09|x4: 0.11|x5: 0.07|x6: 0.02|x7: 0.03|x8: 0.08|x9: 0.05|x10: 0.05|x11: 0.03|x12: 0.10|x13: 0.02|x14: 0.04|x15: 0.02|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.22|x2: 0.15|x3: 0.07|x4: 0.11|x5: 0.05|x6: 0.00|x7: 0.02|x8: 0.09|x9: 0.05|x10: 0.02|x11: 0.00|x12: 0.13|x13: 0.00|x14: 0.02|x15: 0.00|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.22]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[1, 2, 4]</t>
+          <t>[1, 2, 4, 12]</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -2286,17 +2286,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.04|x3: 0.02|x4: 0.38|x5: 0.02|x6: 0.03|x7: 0.05|x8: 0.07|x9: 0.09|x10: 0.06|x11: 0.03|x12: 0.02|x13: 0.07|x14: 0.02|x15: 0.04|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.05|x3: 0.00|x4: 0.46|x5: 0.00|x6: 0.00|x7: 0.05|x8: 0.09|x9: 0.12|x10: 0.05|x11: 0.00|x12: 0.00|x13: 0.09|x14: 0.00|x15: 0.03|x16: 0.03|x17: 0.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.38]</t>
+          <t>[0.00, 0.06, 0.46]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[4, 9]</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -2322,17 +2322,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.12|x3: 0.03|x4: 0.18|x5: 0.05|x6: 0.03|x7: 0.01|x8: 0.08|x9: 0.04|x10: 0.02|x11: 0.03|x12: 0.10|x13: 0.05|x14: 0.09|x15: 0.02|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.14|x2: 0.16|x3: 0.00|x4: 0.21|x5: 0.04|x6: 0.00|x7: 0.00|x8: 0.08|x9: 0.04|x10: 0.00|x11: 0.00|x12: 0.13|x13: 0.07|x14: 0.09|x15: 0.00|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[1, 2, 4, 12]</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.07|x3: 0.09|x4: 0.18|x5: 0.06|x6: 0.02|x7: 0.07|x8: 0.07|x9: 0.06|x10: 0.07|x11: 0.04|x12: 0.08|x13: 0.08|x14: 0.02|x15: 0.02|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.09|x3: 0.07|x4: 0.18|x5: 0.06|x6: 0.00|x7: 0.07|x8: 0.08|x9: 0.06|x10: 0.08|x11: 0.02|x12: 0.10|x13: 0.10|x14: 0.00|x15: 0.00|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[4, 13]</t>
         </is>
       </c>
       <c r="G54" t="b">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.01|x3: 0.05|x4: 0.30|x5: 0.01|x6: 0.15|x7: 0.01|x8: 0.03|x9: 0.03|x10: 0.02|x11: 0.05|x12: 0.03|x13: 0.09|x14: 0.08|x15: 0.02|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.17|x2: 0.00|x3: 0.03|x4: 0.36|x5: 0.00|x6: 0.16|x7: 0.00|x8: 0.01|x9: 0.02|x10: 0.00|x11: 0.04|x12: 0.03|x13: 0.12|x14: 0.07|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.30]</t>
+          <t>[0.00, 0.06, 0.36]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[4, 6]</t>
+          <t>[1, 4, 6, 13]</t>
         </is>
       </c>
       <c r="G55" t="b">
@@ -2430,17 +2430,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.09|x3: 0.04|x4: 0.15|x5: 0.12|x6: 0.03|x7: 0.02|x8: 0.08|x9: 0.08|x10: 0.03|x11: 0.04|x12: 0.06|x13: 0.03|x14: 0.05|x15: 0.03|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.02|x2: 0.10|x3: 0.02|x4: 0.16|x5: 0.11|x6: 0.02|x7: 0.00|x8: 0.12|x9: 0.13|x10: 0.00|x11: 0.02|x12: 0.05|x13: 0.03|x14: 0.03|x15: 0.02|x16: 0.17|x17: 0.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[4, 5, 16]</t>
+          <t>[2, 4, 5, 8, 9, 16]</t>
         </is>
       </c>
       <c r="G56" t="b">
@@ -2466,17 +2466,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.02|x3: 0.02|x4: 0.05|x5: 0.06|x6: 0.01|x7: 0.13|x8: 0.12|x9: 0.16|x10: 0.15|x11: 0.04|x12: 0.03|x13: 0.08|x14: 0.03|x15: 0.01|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.05|x5: 0.07|x6: 0.00|x7: 0.15|x8: 0.15|x9: 0.20|x10: 0.17|x11: 0.00|x12: 0.00|x13: 0.11|x14: 0.00|x15: 0.00|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.20]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[7, 8, 9, 10]</t>
+          <t>[7, 8, 9, 10, 13]</t>
         </is>
       </c>
       <c r="G57" t="b">
@@ -2502,17 +2502,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.11|x3: 0.02|x4: 0.19|x5: 0.07|x6: 0.10|x7: 0.01|x8: 0.07|x9: 0.08|x10: 0.01|x11: 0.06|x12: 0.05|x13: 0.06|x14: 0.08|x15: 0.03|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.15|x3: 0.01|x4: 0.22|x5: 0.07|x6: 0.10|x7: 0.00|x8: 0.07|x9: 0.08|x10: 0.00|x11: 0.05|x12: 0.05|x13: 0.07|x14: 0.06|x15: 0.00|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.22]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[2, 4, 6]</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -2538,17 +2538,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.07|x3: 0.04|x4: 0.04|x5: 0.12|x6: 0.02|x7: 0.01|x8: 0.06|x9: 0.04|x10: 0.01|x11: 0.06|x12: 0.10|x13: 0.08|x14: 0.15|x15: 0.07|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.07|x3: 0.03|x4: 0.00|x5: 0.14|x6: 0.00|x7: 0.00|x8: 0.08|x9: 0.06|x10: 0.00|x11: 0.04|x12: 0.12|x13: 0.11|x14: 0.16|x15: 0.06|x16: 0.12|x17: 0.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[5, 12, 14, 16]</t>
+          <t>[5, 12, 13, 14, 16]</t>
         </is>
       </c>
       <c r="G59" t="b">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.02|x3: 0.07|x4: 0.11|x5: 0.07|x6: 0.07|x7: 0.02|x8: 0.07|x9: 0.08|x10: 0.02|x11: 0.05|x12: 0.06|x13: 0.13|x14: 0.05|x15: 0.06|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.00|x3: 0.05|x4: 0.12|x5: 0.07|x6: 0.07|x7: 0.00|x8: 0.09|x9: 0.10|x10: 0.00|x11: 0.01|x12: 0.06|x13: 0.20|x14: 0.03|x15: 0.05|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.20]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2610,12 +2610,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.10|x3: 0.02|x4: 0.18|x5: 0.15|x6: 0.07|x7: 0.01|x8: 0.07|x9: 0.06|x10: 0.01|x11: 0.02|x12: 0.06|x13: 0.01|x14: 0.04|x15: 0.02|x16: 0.17|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.12|x3: 0.00|x4: 0.21|x5: 0.18|x6: 0.06|x7: 0.00|x8: 0.08|x9: 0.07|x10: 0.00|x11: 0.00|x12: 0.07|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.20|x17: 0.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2646,17 +2646,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.12|x3: 0.03|x4: 0.02|x5: 0.17|x6: 0.14|x7: 0.02|x8: 0.02|x9: 0.02|x10: 0.02|x11: 0.03|x12: 0.02|x13: 0.08|x14: 0.05|x15: 0.03|x16: 0.19|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.16|x3: 0.01|x4: 0.00|x5: 0.19|x6: 0.17|x7: 0.00|x8: 0.04|x9: 0.05|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.11|x14: 0.00|x15: 0.00|x16: 0.25|x17: 0.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.25]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[2, 5, 6, 16]</t>
+          <t>[2, 5, 6, 13, 16]</t>
         </is>
       </c>
       <c r="G62" t="b">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.11|x3: 0.02|x4: 0.01|x5: 0.14|x6: 0.01|x7: 0.02|x8: 0.10|x9: 0.12|x10: 0.02|x11: 0.06|x12: 0.04|x13: 0.01|x14: 0.17|x15: 0.02|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.14|x3: 0.02|x4: 0.00|x5: 0.15|x6: 0.00|x7: 0.00|x8: 0.12|x9: 0.16|x10: 0.00|x11: 0.04|x12: 0.02|x13: 0.00|x14: 0.17|x15: 0.00|x16: 0.17|x17: 0.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[2, 5, 9, 14, 16]</t>
+          <t>[2, 5, 8, 9, 14, 16]</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -2718,17 +2718,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.10|x3: 0.06|x4: 0.07|x5: 0.13|x6: 0.04|x7: 0.02|x8: 0.06|x9: 0.06|x10: 0.03|x11: 0.02|x12: 0.05|x13: 0.01|x14: 0.10|x15: 0.06|x16: 0.14|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.13|x3: 0.06|x4: 0.07|x5: 0.14|x6: 0.03|x7: 0.02|x8: 0.07|x9: 0.07|x10: 0.02|x11: 0.00|x12: 0.04|x13: 0.00|x14: 0.09|x15: 0.06|x16: 0.16|x17: 0.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[2, 5, 14, 16]</t>
+          <t>[2, 5, 16]</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -2754,17 +2754,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.09|x3: 0.05|x4: 0.09|x5: 0.17|x6: 0.02|x7: 0.04|x8: 0.04|x9: 0.02|x10: 0.04|x11: 0.03|x12: 0.07|x13: 0.06|x14: 0.06|x15: 0.02|x16: 0.18|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.11|x3: 0.03|x4: 0.08|x5: 0.19|x6: 0.00|x7: 0.02|x8: 0.06|x9: 0.04|x10: 0.03|x11: 0.02|x12: 0.09|x13: 0.08|x14: 0.03|x15: 0.00|x16: 0.23|x17: 0.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.23]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[5, 16]</t>
+          <t>[2, 5, 16]</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -2790,17 +2790,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.13|x3: 0.15|x4: 0.01|x5: 0.03|x6: 0.01|x7: 0.06|x8: 0.12|x9: 0.12|x10: 0.06|x11: 0.07|x12: 0.09|x13: 0.06|x14: 0.01|x15: 0.03|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.18|x3: 0.14|x4: 0.00|x5: 0.02|x6: 0.00|x7: 0.05|x8: 0.14|x9: 0.14|x10: 0.05|x11: 0.05|x12: 0.12|x13: 0.07|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[2, 3, 8, 9]</t>
+          <t>[2, 3, 8, 9, 12]</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -2826,17 +2826,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.06|x3: 0.13|x4: 0.13|x5: 0.05|x6: 0.03|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.05|x11: 0.05|x12: 0.07|x13: 0.06|x14: 0.03|x15: 0.05|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.11|x2: 0.06|x3: 0.13|x4: 0.14|x5: 0.05|x6: 0.02|x7: 0.03|x8: 0.07|x9: 0.06|x10: 0.04|x11: 0.03|x12: 0.08|x13: 0.07|x14: 0.01|x15: 0.04|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.14]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[1, 3, 4]</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -2862,17 +2862,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.09|x3: 0.02|x4: 0.06|x5: 0.05|x6: 0.01|x7: 0.07|x8: 0.05|x9: 0.04|x10: 0.09|x11: 0.02|x12: 0.05|x13: 0.02|x14: 0.02|x15: 0.28|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.10|x3: 0.00|x4: 0.05|x5: 0.03|x6: 0.00|x7: 0.06|x8: 0.08|x9: 0.08|x10: 0.07|x11: 0.00|x12: 0.05|x13: 0.02|x14: 0.00|x15: 0.34|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.28]</t>
+          <t>[0.00, 0.06, 0.34]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[2, 15]</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -2898,17 +2898,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.03|x3: 0.03|x4: 0.09|x5: 0.02|x6: 0.15|x7: 0.05|x8: 0.07|x9: 0.09|x10: 0.06|x11: 0.04|x12: 0.03|x13: 0.06|x14: 0.10|x15: 0.06|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.03|x3: 0.00|x4: 0.07|x5: 0.02|x6: 0.18|x7: 0.04|x8: 0.10|x9: 0.12|x10: 0.04|x11: 0.01|x12: 0.01|x13: 0.09|x14: 0.09|x15: 0.06|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[6, 9]</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -2934,17 +2934,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.06|x3: 0.03|x4: 0.04|x5: 0.03|x6: 0.17|x7: 0.06|x8: 0.03|x9: 0.02|x10: 0.07|x11: 0.07|x12: 0.09|x13: 0.02|x14: 0.08|x15: 0.13|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.07|x3: 0.01|x4: 0.03|x5: 0.02|x6: 0.22|x7: 0.05|x8: 0.04|x9: 0.01|x10: 0.06|x11: 0.07|x12: 0.11|x13: 0.00|x14: 0.06|x15: 0.14|x16: 0.02|x17: 0.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.22]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[6, 15]</t>
+          <t>[6, 12, 15]</t>
         </is>
       </c>
       <c r="G70" t="b">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.01|x3: 0.03|x4: 0.12|x5: 0.03|x6: 0.08|x7: 0.05|x8: 0.04|x9: 0.06|x10: 0.06|x11: 0.07|x12: 0.04|x13: 0.09|x14: 0.14|x15: 0.08|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.00|x3: 0.00|x4: 0.14|x5: 0.03|x6: 0.08|x7: 0.05|x8: 0.04|x9: 0.06|x10: 0.06|x11: 0.06|x12: 0.03|x13: 0.12|x14: 0.14|x15: 0.08|x16: 0.03|x17: 0.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[4, 14]</t>
+          <t>[4, 13, 14]</t>
         </is>
       </c>
       <c r="G71" t="b">
@@ -3006,12 +3006,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.01|x3: 0.06|x4: 0.14|x5: 0.06|x6: 0.18|x7: 0.05|x8: 0.02|x9: 0.02|x10: 0.05|x11: 0.07|x12: 0.04|x13: 0.05|x14: 0.15|x15: 0.01|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.00|x3: 0.04|x4: 0.16|x5: 0.06|x6: 0.22|x7: 0.04|x8: 0.01|x9: 0.02|x10: 0.05|x11: 0.07|x12: 0.03|x13: 0.06|x14: 0.15|x15: 0.00|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.22]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3042,17 +3042,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.13|x3: 0.06|x4: 0.05|x5: 0.08|x6: 0.10|x7: 0.04|x8: 0.06|x9: 0.04|x10: 0.05|x11: 0.05|x12: 0.10|x13: 0.07|x14: 0.03|x15: 0.04|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.17|x3: 0.02|x4: 0.03|x5: 0.06|x6: 0.11|x7: 0.02|x8: 0.11|x9: 0.07|x10: 0.02|x11: 0.03|x12: 0.13|x13: 0.09|x14: 0.00|x15: 0.02|x16: 0.11|x17: 0.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[2, 6]</t>
+          <t>[2, 6, 8, 12, 16]</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -3078,24 +3078,24 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.07|x3: 0.08|x4: 0.10|x5: 0.01|x6: 0.03|x7: 0.14|x8: 0.09|x9: 0.10|x10: 0.16|x11: 0.03|x12: 0.06|x13: 0.04|x14: 0.02|x15: 0.02|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.08|x3: 0.07|x4: 0.12|x5: 0.00|x6: 0.03|x7: 0.16|x8: 0.10|x9: 0.11|x10: 0.18|x11: 0.00|x12: 0.06|x13: 0.04|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[4, 7, 10]</t>
+          <t>[4, 7, 8, 9, 10]</t>
         </is>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3114,12 +3114,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.17|x3: 0.13|x4: 0.03|x5: 0.06|x6: 0.02|x7: 0.02|x8: 0.11|x9: 0.10|x10: 0.02|x11: 0.06|x12: 0.11|x13: 0.02|x14: 0.05|x15: 0.04|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.23|x3: 0.12|x4: 0.02|x5: 0.05|x6: 0.00|x7: 0.00|x8: 0.15|x9: 0.14|x10: 0.00|x11: 0.03|x12: 0.14|x13: 0.00|x14: 0.04|x15: 0.00|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.23]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3150,12 +3150,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.13|x3: 0.03|x4: 0.07|x5: 0.06|x6: 0.02|x7: 0.03|x8: 0.11|x9: 0.12|x10: 0.03|x11: 0.06|x12: 0.09|x13: 0.06|x14: 0.05|x15: 0.03|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.16|x3: 0.00|x4: 0.06|x5: 0.02|x6: 0.00|x7: 0.00|x8: 0.18|x9: 0.19|x10: 0.00|x11: 0.02|x12: 0.10|x13: 0.07|x14: 0.05|x15: 0.00|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.19]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3186,24 +3186,24 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.13|x3: 0.15|x4: 0.17|x5: 0.04|x6: 0.02|x7: 0.01|x8: 0.08|x9: 0.10|x10: 0.01|x11: 0.04|x12: 0.02|x13: 0.13|x14: 0.01|x15: 0.04|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.19|x3: 0.15|x4: 0.21|x5: 0.02|x6: 0.00|x7: 0.00|x8: 0.09|x9: 0.12|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.20|x14: 0.00|x15: 0.00|x16: 0.01|x17: 0.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 13]</t>
+          <t>[2, 3, 4, 9, 13]</t>
         </is>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.04|x3: 0.03|x4: 0.02|x5: 0.10|x6: 0.12|x7: 0.12|x8: 0.04|x9: 0.05|x10: 0.14|x11: 0.04|x12: 0.04|x13: 0.02|x14: 0.13|x15: 0.02|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.04|x3: 0.02|x4: 0.00|x5: 0.10|x6: 0.14|x7: 0.12|x8: 0.06|x9: 0.07|x10: 0.14|x11: 0.03|x12: 0.02|x13: 0.00|x14: 0.12|x15: 0.00|x16: 0.13|x17: 0.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[6, 7, 10, 14]</t>
+          <t>[5, 6, 7, 10, 14, 16]</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -3258,24 +3258,24 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.11|x3: 0.02|x4: 0.03|x5: 0.04|x6: 0.13|x7: 0.12|x8: 0.07|x9: 0.08|x10: 0.14|x11: 0.04|x12: 0.04|x13: 0.02|x14: 0.09|x15: 0.03|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.14|x3: 0.00|x4: 0.02|x5: 0.02|x6: 0.15|x7: 0.13|x8: 0.10|x9: 0.12|x10: 0.15|x11: 0.01|x12: 0.02|x13: 0.00|x14: 0.08|x15: 0.00|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[2, 6, 7, 10]</t>
+          <t>[2, 6, 7, 9, 10]</t>
         </is>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3294,24 +3294,24 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.10|x3: 0.05|x4: 0.03|x5: 0.02|x6: 0.01|x7: 0.13|x8: 0.06|x9: 0.08|x10: 0.14|x11: 0.05|x12: 0.03|x13: 0.12|x14: 0.03|x15: 0.12|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.12|x3: 0.03|x4: 0.03|x5: 0.00|x6: 0.00|x7: 0.14|x8: 0.08|x9: 0.11|x10: 0.16|x11: 0.01|x12: 0.01|x13: 0.16|x14: 0.02|x15: 0.12|x16: 0.01|x17: 0.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[7, 10, 13, 15]</t>
+          <t>[2, 7, 9, 10, 13, 15]</t>
         </is>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3330,12 +3330,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.04|x3: 0.03|x4: 0.05|x5: 0.02|x6: 0.01|x7: 0.04|x8: 0.14|x9: 0.17|x10: 0.04|x11: 0.15|x12: 0.09|x13: 0.07|x14: 0.05|x15: 0.03|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.03|x3: 0.00|x4: 0.05|x5: 0.02|x6: 0.00|x7: 0.02|x8: 0.17|x9: 0.21|x10: 0.03|x11: 0.14|x12: 0.09|x13: 0.08|x14: 0.05|x15: 0.02|x16: 0.02|x17: 0.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3366,17 +3366,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.03|x3: 0.08|x4: 0.09|x5: 0.05|x6: 0.18|x7: 0.04|x8: 0.03|x9: 0.03|x10: 0.04|x11: 0.12|x12: 0.07|x13: 0.09|x14: 0.06|x15: 0.02|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.03|x3: 0.04|x4: 0.09|x5: 0.06|x6: 0.22|x7: 0.03|x8: 0.03|x9: 0.02|x10: 0.03|x11: 0.13|x12: 0.09|x13: 0.14|x14: 0.03|x15: 0.00|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.22]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[6, 11]</t>
+          <t>[6, 11, 13]</t>
         </is>
       </c>
       <c r="G82" t="b">
@@ -3402,12 +3402,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.18|x3: 0.05|x4: 0.04|x5: 0.06|x6: 0.08|x7: 0.01|x8: 0.06|x9: 0.04|x10: 0.01|x11: 0.07|x12: 0.12|x13: 0.02|x14: 0.16|x15: 0.04|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.25|x3: 0.03|x4: 0.04|x5: 0.04|x6: 0.08|x7: 0.00|x8: 0.08|x9: 0.04|x10: 0.00|x11: 0.06|x12: 0.16|x13: 0.00|x14: 0.17|x15: 0.00|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.25]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3438,12 +3438,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.07|x3: 0.04|x4: 0.06|x5: 0.04|x6: 0.06|x7: 0.06|x8: 0.12|x9: 0.13|x10: 0.06|x11: 0.06|x12: 0.09|x13: 0.02|x14: 0.12|x15: 0.02|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.07|x3: 0.03|x4: 0.06|x5: 0.03|x6: 0.07|x7: 0.05|x8: 0.16|x9: 0.17|x10: 0.05|x11: 0.04|x12: 0.10|x13: 0.00|x14: 0.12|x15: 0.00|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3474,12 +3474,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.14|x3: 0.16|x4: 0.07|x5: 0.09|x6: 0.02|x7: 0.03|x8: 0.05|x9: 0.05|x10: 0.03|x11: 0.07|x12: 0.04|x13: 0.01|x14: 0.12|x15: 0.03|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.19|x3: 0.17|x4: 0.08|x5: 0.09|x6: 0.00|x7: 0.02|x8: 0.05|x9: 0.06|x10: 0.02|x11: 0.06|x12: 0.04|x13: 0.00|x14: 0.13|x15: 0.00|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.19]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3510,17 +3510,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.06|x3: 0.05|x4: 0.10|x5: 0.09|x6: 0.02|x7: 0.08|x8: 0.07|x9: 0.07|x10: 0.09|x11: 0.05|x12: 0.07|x13: 0.06|x14: 0.07|x15: 0.02|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.06|x3: 0.04|x4: 0.11|x5: 0.09|x6: 0.00|x7: 0.07|x8: 0.10|x9: 0.10|x10: 0.09|x11: 0.03|x12: 0.07|x13: 0.07|x14: 0.05|x15: 0.00|x16: 0.13|x17: 0.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[4, 16]</t>
         </is>
       </c>
       <c r="G86" t="b">
@@ -3546,24 +3546,24 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.05|x3: 0.04|x4: 0.07|x5: 0.10|x6: 0.04|x7: 0.09|x8: 0.10|x9: 0.08|x10: 0.11|x11: 0.03|x12: 0.09|x13: 0.01|x14: 0.03|x15: 0.01|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.03|x3: 0.02|x4: 0.05|x5: 0.09|x6: 0.03|x7: 0.08|x8: 0.14|x9: 0.13|x10: 0.10|x11: 0.00|x12: 0.10|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.13|x17: 0.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.14]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[10, 16]</t>
+          <t>[1, 8, 9, 12, 16]</t>
         </is>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3582,17 +3582,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.10|x3: 0.05|x4: 0.06|x5: 0.05|x6: 0.05|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.06|x11: 0.10|x12: 0.08|x13: 0.05|x14: 0.09|x15: 0.03|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.19|x2: 0.12|x3: 0.02|x4: 0.05|x5: 0.03|x6: 0.05|x7: 0.03|x8: 0.06|x9: 0.05|x10: 0.03|x11: 0.09|x12: 0.09|x13: 0.05|x14: 0.09|x15: 0.00|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>[0.00, 0.06, 0.19]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[1, 2]</t>
         </is>
       </c>
       <c r="G88" t="b">
@@ -3618,17 +3618,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.05|x3: 0.04|x4: 0.07|x5: 0.09|x6: 0.02|x7: 0.07|x8: 0.09|x9: 0.07|x10: 0.09|x11: 0.04|x12: 0.09|x13: 0.02|x14: 0.04|x15: 0.04|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.18|x2: 0.04|x3: 0.01|x4: 0.05|x5: 0.10|x6: 0.00|x7: 0.06|x8: 0.11|x9: 0.09|x10: 0.07|x11: 0.01|x12: 0.10|x13: 0.00|x14: 0.03|x15: 0.04|x16: 0.11|x17: 0.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[1, 8, 12, 16]</t>
         </is>
       </c>
       <c r="G89" t="b">
@@ -3654,17 +3654,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.05|x3: 0.03|x4: 0.04|x5: 0.01|x6: 0.01|x7: 0.13|x8: 0.09|x9: 0.13|x10: 0.14|x11: 0.09|x12: 0.04|x13: 0.12|x14: 0.05|x15: 0.02|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.05|x3: 0.01|x4: 0.05|x5: 0.00|x6: 0.00|x7: 0.14|x8: 0.12|x9: 0.16|x10: 0.16|x11: 0.06|x12: 0.03|x13: 0.16|x14: 0.04|x15: 0.00|x16: 0.02|x17: 0.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[7, 9, 10, 13]</t>
+          <t>[7, 8, 9, 10, 13]</t>
         </is>
       </c>
       <c r="G90" t="b">
@@ -3690,12 +3690,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.04|x3: 0.09|x4: 0.03|x5: 0.03|x6: 0.04|x7: 0.10|x8: 0.07|x9: 0.11|x10: 0.12|x11: 0.19|x12: 0.07|x13: 0.04|x14: 0.02|x15: 0.01|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.05|x3: 0.05|x4: 0.03|x5: 0.03|x6: 0.04|x7: 0.10|x8: 0.09|x9: 0.12|x10: 0.11|x11: 0.21|x12: 0.07|x13: 0.05|x14: 0.00|x15: 0.00|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3726,17 +3726,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.08|x3: 0.03|x4: 0.02|x5: 0.07|x6: 0.09|x7: 0.06|x8: 0.11|x9: 0.10|x10: 0.06|x11: 0.04|x12: 0.12|x13: 0.06|x14: 0.04|x15: 0.02|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.08|x3: 0.00|x4: 0.00|x5: 0.06|x6: 0.10|x7: 0.05|x8: 0.17|x9: 0.14|x10: 0.05|x11: 0.01|x12: 0.15|x13: 0.07|x14: 0.02|x15: 0.00|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[8, 9, 12]</t>
+          <t>[6, 8, 9, 12]</t>
         </is>
       </c>
       <c r="G92" t="b">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.21|x3: 0.02|x4: 0.01|x5: 0.03|x6: 0.05|x7: 0.13|x8: 0.07|x9: 0.08|x10: 0.16|x11: 0.06|x12: 0.03|x13: 0.02|x14: 0.05|x15: 0.04|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.31|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.05|x7: 0.15|x8: 0.07|x9: 0.10|x10: 0.17|x11: 0.02|x12: 0.02|x13: 0.00|x14: 0.04|x15: 0.00|x16: 0.01|x17: 0.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.21]</t>
+          <t>[0.00, 0.06, 0.31]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.02|x3: 0.17|x4: 0.03|x5: 0.10|x6: 0.10|x7: 0.06|x8: 0.04|x9: 0.04|x10: 0.08|x11: 0.06|x12: 0.03|x13: 0.07|x14: 0.04|x15: 0.02|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.00|x3: 0.17|x4: 0.02|x5: 0.12|x6: 0.12|x7: 0.06|x8: 0.04|x9: 0.05|x10: 0.07|x11: 0.04|x12: 0.02|x13: 0.09|x14: 0.01|x15: 0.00|x16: 0.11|x17: 0.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 5, 6, 16]</t>
         </is>
       </c>
       <c r="G94" t="b">
@@ -3834,12 +3834,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.06|x3: 0.12|x4: 0.03|x5: 0.03|x6: 0.03|x7: 0.05|x8: 0.11|x9: 0.15|x10: 0.06|x11: 0.12|x12: 0.06|x13: 0.02|x14: 0.07|x15: 0.03|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.06|x3: 0.12|x4: 0.02|x5: 0.02|x6: 0.03|x7: 0.03|x8: 0.14|x9: 0.19|x10: 0.04|x11: 0.11|x12: 0.05|x13: 0.00|x14: 0.07|x15: 0.00|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.19]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3870,17 +3870,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.06|x3: 0.06|x4: 0.05|x5: 0.05|x6: 0.17|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.06|x12: 0.04|x13: 0.01|x14: 0.14|x15: 0.05|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.13|x2: 0.07|x3: 0.04|x4: 0.04|x5: 0.04|x6: 0.21|x7: 0.03|x8: 0.05|x9: 0.06|x10: 0.03|x11: 0.04|x12: 0.02|x13: 0.00|x14: 0.13|x15: 0.04|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[1, 6, 14]</t>
         </is>
       </c>
       <c r="G96" t="b">
@@ -3906,12 +3906,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.11|x3: 0.05|x4: 0.08|x5: 0.04|x6: 0.02|x7: 0.03|x8: 0.03|x9: 0.03|x10: 0.04|x11: 0.05|x12: 0.03|x13: 0.04|x14: 0.06|x15: 0.27|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.15|x3: 0.04|x4: 0.09|x5: 0.02|x6: 0.00|x7: 0.02|x8: 0.03|x9: 0.04|x10: 0.03|x11: 0.03|x12: 0.02|x13: 0.04|x14: 0.06|x15: 0.31|x16: 0.03|x17: 0.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.27]</t>
+          <t>[0.00, 0.06, 0.31]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3942,17 +3942,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.04|x3: 0.16|x4: 0.03|x5: 0.10|x6: 0.01|x7: 0.01|x8: 0.12|x9: 0.14|x10: 0.02|x11: 0.04|x12: 0.03|x13: 0.03|x14: 0.06|x15: 0.02|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.16|x2: 0.03|x3: 0.16|x4: 0.02|x5: 0.11|x6: 0.00|x7: 0.00|x8: 0.13|x9: 0.17|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.03|x14: 0.05|x15: 0.00|x16: 0.13|x17: 0.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[3, 8, 9, 16]</t>
+          <t>[1, 3, 5, 8, 9, 16]</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -3978,24 +3978,24 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.12|x3: 0.03|x4: 0.13|x5: 0.08|x6: 0.06|x7: 0.03|x8: 0.08|x9: 0.07|x10: 0.04|x11: 0.03|x12: 0.08|x13: 0.07|x14: 0.03|x15: 0.03|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.16|x3: 0.00|x4: 0.14|x5: 0.07|x6: 0.05|x7: 0.02|x8: 0.10|x9: 0.08|x10: 0.03|x11: 0.00|x12: 0.10|x13: 0.10|x14: 0.00|x15: 0.00|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[2, 4, 12]</t>
         </is>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -4014,17 +4014,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.02|x3: 0.06|x4: 0.07|x5: 0.03|x6: 0.04|x7: 0.07|x8: 0.08|x9: 0.10|x10: 0.08|x11: 0.08|x12: 0.07|x13: 0.06|x14: 0.11|x15: 0.04|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.00|x3: 0.05|x4: 0.07|x5: 0.03|x6: 0.04|x7: 0.06|x8: 0.10|x9: 0.13|x10: 0.07|x11: 0.06|x12: 0.07|x13: 0.05|x14: 0.12|x15: 0.02|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[8, 9, 14]</t>
         </is>
       </c>
       <c r="G100" t="b">
@@ -4050,12 +4050,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.02|x3: 0.03|x4: 0.01|x5: 0.05|x6: 0.01|x7: 0.07|x8: 0.14|x9: 0.17|x10: 0.08|x11: 0.08|x12: 0.08|x13: 0.02|x14: 0.11|x15: 0.05|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.06|x6: 0.00|x7: 0.07|x8: 0.17|x9: 0.21|x10: 0.08|x11: 0.06|x12: 0.08|x13: 0.00|x14: 0.12|x15: 0.04|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4086,17 +4086,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.12|x3: 0.06|x4: 0.01|x5: 0.05|x6: 0.01|x7: 0.06|x8: 0.07|x9: 0.08|x10: 0.06|x11: 0.07|x12: 0.04|x13: 0.19|x14: 0.03|x15: 0.06|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.16|x3: 0.02|x4: 0.00|x5: 0.04|x6: 0.00|x7: 0.05|x8: 0.09|x9: 0.10|x10: 0.06|x11: 0.03|x12: 0.04|x13: 0.28|x14: 0.02|x15: 0.03|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.28]</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[2, 13]</t>
+          <t>[2, 9, 13]</t>
         </is>
       </c>
       <c r="G102" t="b">
@@ -4122,17 +4122,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.07|x3: 0.11|x4: 0.06|x5: 0.10|x6: 0.05|x7: 0.04|x8: 0.11|x9: 0.12|x10: 0.04|x11: 0.03|x12: 0.08|x13: 0.01|x14: 0.03|x15: 0.02|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.08|x3: 0.10|x4: 0.05|x5: 0.10|x6: 0.05|x7: 0.03|x8: 0.16|x9: 0.16|x10: 0.03|x11: 0.00|x12: 0.09|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.15|x17: 0.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[3, 8, 9, 16]</t>
+          <t>[5, 8, 9, 16]</t>
         </is>
       </c>
       <c r="G103" t="b">
@@ -4158,17 +4158,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.04|x3: 0.03|x4: 0.04|x5: 0.09|x6: 0.02|x7: 0.04|x8: 0.06|x9: 0.05|x10: 0.05|x11: 0.05|x12: 0.07|x13: 0.11|x14: 0.17|x15: 0.02|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.11|x2: 0.04|x3: 0.00|x4: 0.03|x5: 0.10|x6: 0.00|x7: 0.03|x8: 0.06|x9: 0.05|x10: 0.04|x11: 0.02|x12: 0.07|x13: 0.16|x14: 0.18|x15: 0.00|x16: 0.11|x17: 0.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[13, 14, 16]</t>
+          <t>[1, 13, 14, 16]</t>
         </is>
       </c>
       <c r="G104" t="b">
@@ -4194,17 +4194,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.02|x3: 0.02|x4: 0.03|x5: 0.04|x6: 0.07|x7: 0.01|x8: 0.04|x9: 0.02|x10: 0.02|x11: 0.06|x12: 0.09|x13: 0.07|x14: 0.16|x15: 0.20|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.00|x3: 0.00|x4: 0.02|x5: 0.05|x6: 0.08|x7: 0.00|x8: 0.04|x9: 0.02|x10: 0.00|x11: 0.05|x12: 0.10|x13: 0.09|x14: 0.17|x15: 0.24|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.20]</t>
+          <t>[0.00, 0.06, 0.24]</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[14, 15]</t>
+          <t>[12, 14, 15]</t>
         </is>
       </c>
       <c r="G105" t="b">
@@ -4230,17 +4230,17 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.03|x3: 0.07|x4: 0.01|x5: 0.04|x6: 0.09|x7: 0.03|x8: 0.04|x9: 0.03|x10: 0.04|x11: 0.06|x12: 0.08|x13: 0.07|x14: 0.23|x15: 0.07|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.02|x3: 0.06|x4: 0.00|x5: 0.04|x6: 0.11|x7: 0.02|x8: 0.04|x9: 0.03|x10: 0.03|x11: 0.06|x12: 0.09|x13: 0.09|x14: 0.25|x15: 0.06|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.23]</t>
+          <t>[0.00, 0.06, 0.25]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[6, 14]</t>
         </is>
       </c>
       <c r="G106" t="b">
@@ -4266,12 +4266,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.08|x3: 0.08|x4: 0.01|x5: 0.07|x6: 0.01|x7: 0.07|x8: 0.05|x9: 0.07|x10: 0.07|x11: 0.08|x12: 0.06|x13: 0.02|x14: 0.16|x15: 0.07|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.10|x3: 0.09|x4: 0.00|x5: 0.08|x6: 0.00|x7: 0.07|x8: 0.06|x9: 0.08|x10: 0.08|x11: 0.07|x12: 0.05|x13: 0.00|x14: 0.17|x15: 0.05|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.09|x3: 0.05|x4: 0.01|x5: 0.05|x6: 0.08|x7: 0.06|x8: 0.04|x9: 0.05|x10: 0.07|x11: 0.08|x12: 0.04|x13: 0.09|x14: 0.14|x15: 0.03|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.12|x3: 0.03|x4: 0.00|x5: 0.05|x6: 0.09|x7: 0.05|x8: 0.04|x9: 0.05|x10: 0.06|x11: 0.06|x12: 0.03|x13: 0.12|x14: 0.14|x15: 0.00|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[2, 13, 14]</t>
         </is>
       </c>
       <c r="G108" t="b">
@@ -4338,17 +4338,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.02|x3: 0.03|x4: 0.04|x5: 0.08|x6: 0.06|x7: 0.02|x8: 0.05|x9: 0.06|x10: 0.02|x11: 0.08|x12: 0.08|x13: 0.10|x14: 0.14|x15: 0.08|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.00|x3: 0.00|x4: 0.02|x5: 0.09|x6: 0.06|x7: 0.01|x8: 0.07|x9: 0.07|x10: 0.01|x11: 0.07|x12: 0.08|x13: 0.15|x14: 0.14|x15: 0.08|x16: 0.12|x17: 0.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[13, 14]</t>
+          <t>[13, 14, 16]</t>
         </is>
       </c>
       <c r="G109" t="b">
@@ -4374,17 +4374,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.04|x3: 0.04|x4: 0.05|x5: 0.05|x6: 0.07|x7: 0.03|x8: 0.06|x9: 0.08|x10: 0.03|x11: 0.04|x12: 0.04|x13: 0.12|x14: 0.15|x15: 0.09|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.02|x2: 0.04|x3: 0.01|x4: 0.05|x5: 0.04|x6: 0.08|x7: 0.01|x8: 0.09|x9: 0.10|x10: 0.01|x11: 0.01|x12: 0.04|x13: 0.18|x14: 0.15|x15: 0.10|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[13, 14]</t>
+          <t>[9, 13, 14]</t>
         </is>
       </c>
       <c r="G110" t="b">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.05|x3: 0.13|x4: 0.09|x5: 0.06|x6: 0.03|x7: 0.04|x8: 0.09|x9: 0.09|x10: 0.04|x11: 0.05|x12: 0.05|x13: 0.06|x14: 0.05|x15: 0.06|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.06|x3: 0.13|x4: 0.10|x5: 0.07|x6: 0.03|x7: 0.03|x8: 0.09|x9: 0.11|x10: 0.03|x11: 0.02|x12: 0.04|x13: 0.07|x14: 0.04|x15: 0.05|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 4, 9]</t>
         </is>
       </c>
       <c r="G111" t="b">
@@ -4446,12 +4446,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>x1: 0.13|x2: 0.02|x3: 0.05|x4: 0.06|x5: 0.03|x6: 0.03|x7: 0.04|x8: 0.05|x9: 0.06|x10: 0.05|x11: 0.06|x12: 0.04|x13: 0.19|x14: 0.02|x15: 0.14|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.19|x2: 0.00|x3: 0.00|x4: 0.05|x5: 0.01|x6: 0.02|x7: 0.02|x8: 0.07|x9: 0.09|x10: 0.02|x11: 0.02|x12: 0.03|x13: 0.29|x14: 0.00|x15: 0.15|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.29]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4482,17 +4482,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.08|x3: 0.07|x4: 0.04|x5: 0.09|x6: 0.01|x7: 0.05|x8: 0.09|x9: 0.10|x10: 0.06|x11: 0.06|x12: 0.06|x13: 0.02|x14: 0.06|x15: 0.04|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.14|x2: 0.09|x3: 0.06|x4: 0.03|x5: 0.09|x6: 0.00|x7: 0.03|x8: 0.12|x9: 0.13|x10: 0.04|x11: 0.03|x12: 0.06|x13: 0.00|x14: 0.04|x15: 0.02|x16: 0.13|x17: 0.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>[0.00, 0.06, 0.14]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[1, 8, 9, 16]</t>
         </is>
       </c>
       <c r="G113" t="b">
@@ -4518,12 +4518,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.06|x3: 0.03|x4: 0.06|x5: 0.03|x6: 0.12|x7: 0.03|x8: 0.03|x9: 0.03|x10: 0.03|x11: 0.08|x12: 0.08|x13: 0.04|x14: 0.12|x15: 0.17|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.07|x3: 0.00|x4: 0.06|x5: 0.02|x6: 0.14|x7: 0.01|x8: 0.05|x9: 0.04|x10: 0.01|x11: 0.08|x12: 0.08|x13: 0.04|x14: 0.11|x15: 0.19|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.19]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4554,17 +4554,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.15|x3: 0.03|x4: 0.06|x5: 0.06|x6: 0.02|x7: 0.03|x8: 0.06|x9: 0.05|x10: 0.05|x11: 0.04|x12: 0.03|x13: 0.03|x14: 0.03|x15: 0.21|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.13|x2: 0.21|x3: 0.01|x4: 0.05|x5: 0.04|x6: 0.00|x7: 0.02|x8: 0.06|x9: 0.08|x10: 0.03|x11: 0.01|x12: 0.02|x13: 0.02|x14: 0.02|x15: 0.23|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.21]</t>
+          <t>[0.00, 0.06, 0.23]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[2, 15]</t>
+          <t>[1, 2, 15]</t>
         </is>
       </c>
       <c r="G115" t="b">
@@ -4590,17 +4590,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.03|x3: 0.11|x4: 0.05|x5: 0.05|x6: 0.04|x7: 0.02|x8: 0.02|x9: 0.02|x10: 0.03|x11: 0.04|x12: 0.03|x13: 0.07|x14: 0.07|x15: 0.28|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.03|x3: 0.11|x4: 0.05|x5: 0.05|x6: 0.03|x7: 0.01|x8: 0.01|x9: 0.02|x10: 0.01|x11: 0.03|x12: 0.02|x13: 0.10|x14: 0.05|x15: 0.33|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.28]</t>
+          <t>[0.00, 0.06, 0.33]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[3, 15]</t>
+          <t>[3, 13, 15]</t>
         </is>
       </c>
       <c r="G116" t="b">
@@ -4626,12 +4626,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.08|x3: 0.03|x4: 0.07|x5: 0.03|x6: 0.05|x7: 0.02|x8: 0.06|x9: 0.05|x10: 0.02|x11: 0.07|x12: 0.08|x13: 0.11|x14: 0.06|x15: 0.17|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.10|x3: 0.00|x4: 0.07|x5: 0.02|x6: 0.04|x7: 0.00|x8: 0.07|x9: 0.06|x10: 0.00|x11: 0.05|x12: 0.09|x13: 0.15|x14: 0.06|x15: 0.18|x16: 0.03|x17: 0.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4662,17 +4662,17 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.09|x3: 0.03|x4: 0.04|x5: 0.10|x6: 0.01|x7: 0.02|x8: 0.04|x9: 0.04|x10: 0.03|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.12|x15: 0.11|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.11|x2: 0.11|x3: 0.01|x4: 0.02|x5: 0.10|x6: 0.00|x7: 0.00|x8: 0.05|x9: 0.07|x10: 0.00|x11: 0.06|x12: 0.05|x13: 0.07|x14: 0.11|x15: 0.10|x16: 0.13|x17: 0.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[5, 14, 15, 16]</t>
+          <t>[1, 2, 14, 15, 16]</t>
         </is>
       </c>
       <c r="G118" t="b">
@@ -4698,17 +4698,17 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.06|x3: 0.04|x4: 0.05|x5: 0.10|x6: 0.02|x7: 0.05|x8: 0.03|x9: 0.03|x10: 0.07|x11: 0.04|x12: 0.03|x13: 0.01|x14: 0.12|x15: 0.17|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.12|x2: 0.06|x3: 0.02|x4: 0.04|x5: 0.11|x6: 0.00|x7: 0.05|x8: 0.03|x9: 0.04|x10: 0.06|x11: 0.02|x12: 0.02|x13: 0.00|x14: 0.11|x15: 0.20|x16: 0.14|x17: 0.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.20]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[14, 15, 16]</t>
+          <t>[1, 5, 14, 15, 16]</t>
         </is>
       </c>
       <c r="G119" t="b">
@@ -4734,24 +4734,24 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.11|x3: 0.03|x4: 0.06|x5: 0.06|x6: 0.04|x7: 0.05|x8: 0.06|x9: 0.05|x10: 0.07|x11: 0.07|x12: 0.07|x13: 0.06|x14: 0.05|x15: 0.10|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.15|x3: 0.00|x4: 0.06|x5: 0.05|x6: 0.04|x7: 0.05|x8: 0.06|x9: 0.06|x10: 0.06|x11: 0.06|x12: 0.07|x13: 0.07|x14: 0.04|x15: 0.10|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[2, 15]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -4770,17 +4770,17 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.04|x3: 0.10|x4: 0.07|x5: 0.08|x6: 0.03|x7: 0.04|x8: 0.05|x9: 0.04|x10: 0.06|x11: 0.11|x12: 0.08|x13: 0.04|x14: 0.09|x15: 0.02|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.15|x2: 0.04|x3: 0.08|x4: 0.06|x5: 0.08|x6: 0.02|x7: 0.03|x8: 0.06|x9: 0.06|x10: 0.03|x11: 0.11|x12: 0.08|x13: 0.03|x14: 0.09|x15: 0.00|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[3, 11]</t>
+          <t>[1, 11]</t>
         </is>
       </c>
       <c r="G121" t="b">
@@ -4806,17 +4806,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.06|x3: 0.07|x4: 0.09|x5: 0.08|x6: 0.08|x7: 0.05|x8: 0.10|x9: 0.10|x10: 0.05|x11: 0.07|x12: 0.07|x13: 0.02|x14: 0.07|x15: 0.02|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.07|x3: 0.06|x4: 0.09|x5: 0.08|x6: 0.08|x7: 0.04|x8: 0.10|x9: 0.12|x10: 0.04|x11: 0.05|x12: 0.07|x13: 0.00|x14: 0.07|x15: 0.00|x16: 0.01|x17: 0.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1, 8, 9]</t>
         </is>
       </c>
       <c r="G122" t="b">
@@ -4842,17 +4842,17 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.13|x3: 0.03|x4: 0.13|x5: 0.03|x6: 0.06|x7: 0.04|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.07|x12: 0.04|x13: 0.06|x14: 0.09|x15: 0.03|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.17|x2: 0.18|x3: 0.00|x4: 0.14|x5: 0.00|x6: 0.05|x7: 0.03|x8: 0.06|x9: 0.08|x10: 0.03|x11: 0.04|x12: 0.02|x13: 0.07|x14: 0.10|x15: 0.00|x16: 0.03|x17: 0.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[1, 2, 4]</t>
         </is>
       </c>
       <c r="G123" t="b">
@@ -4878,24 +4878,24 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.16|x3: 0.02|x4: 0.07|x5: 0.09|x6: 0.02|x7: 0.04|x8: 0.04|x9: 0.04|x10: 0.05|x11: 0.08|x12: 0.05|x13: 0.05|x14: 0.11|x15: 0.04|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.23|x3: 0.00|x4: 0.06|x5: 0.07|x6: 0.00|x7: 0.02|x8: 0.06|x9: 0.08|x10: 0.03|x11: 0.06|x12: 0.05|x13: 0.04|x14: 0.12|x15: 0.00|x16: 0.12|x17: 0.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.23]</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[2, 14]</t>
+          <t>[2, 14, 16]</t>
         </is>
       </c>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -4914,17 +4914,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.12|x3: 0.05|x4: 0.07|x5: 0.12|x6: 0.08|x7: 0.05|x8: 0.06|x9: 0.05|x10: 0.07|x11: 0.03|x12: 0.04|x13: 0.04|x14: 0.03|x15: 0.03|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.12|x2: 0.16|x3: 0.04|x4: 0.06|x5: 0.12|x6: 0.09|x7: 0.04|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.00|x12: 0.03|x13: 0.05|x14: 0.00|x15: 0.00|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[2, 5]</t>
+          <t>[1, 2, 5]</t>
         </is>
       </c>
       <c r="G125" t="b">
@@ -4950,12 +4950,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.08|x3: 0.02|x4: 0.06|x5: 0.10|x6: 0.07|x7: 0.05|x8: 0.05|x9: 0.07|x10: 0.06|x11: 0.07|x12: 0.04|x13: 0.06|x14: 0.06|x15: 0.07|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.09|x3: 0.00|x4: 0.06|x5: 0.12|x6: 0.08|x7: 0.05|x8: 0.06|x9: 0.08|x10: 0.06|x11: 0.05|x12: 0.02|x13: 0.07|x14: 0.03|x15: 0.06|x16: 0.13|x17: 0.00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4986,17 +4986,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.02|x3: 0.07|x4: 0.07|x5: 0.05|x6: 0.06|x7: 0.04|x8: 0.10|x9: 0.11|x10: 0.04|x11: 0.06|x12: 0.08|x13: 0.09|x14: 0.06|x15: 0.02|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.00|x3: 0.04|x4: 0.06|x5: 0.04|x6: 0.07|x7: 0.01|x8: 0.15|x9: 0.16|x10: 0.01|x11: 0.02|x12: 0.09|x13: 0.12|x14: 0.04|x15: 0.00|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[8, 9, 13]</t>
         </is>
       </c>
       <c r="G127" t="b">
@@ -5022,12 +5022,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.08|x3: 0.19|x4: 0.02|x5: 0.07|x6: 0.01|x7: 0.04|x8: 0.10|x9: 0.12|x10: 0.04|x11: 0.06|x12: 0.06|x13: 0.01|x14: 0.08|x15: 0.02|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.09|x3: 0.21|x4: 0.02|x5: 0.07|x6: 0.03|x7: 0.02|x8: 0.13|x9: 0.15|x10: 0.03|x11: 0.04|x12: 0.05|x13: 0.00|x14: 0.08|x15: 0.00|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5058,17 +5058,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.04|x3: 0.12|x4: 0.04|x5: 0.02|x6: 0.03|x7: 0.09|x8: 0.10|x9: 0.12|x10: 0.10|x11: 0.06|x12: 0.07|x13: 0.09|x14: 0.06|x15: 0.02|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.03|x3: 0.12|x4: 0.03|x5: 0.01|x6: 0.02|x7: 0.08|x8: 0.15|x9: 0.17|x10: 0.10|x11: 0.03|x12: 0.06|x13: 0.11|x14: 0.05|x15: 0.00|x16: 0.03|x17: 0.00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[3, 8, 9]</t>
+          <t>[3, 8, 9, 13]</t>
         </is>
       </c>
       <c r="G129" t="b">
@@ -5094,17 +5094,17 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.02|x3: 0.24|x4: 0.02|x5: 0.08|x6: 0.06|x7: 0.03|x8: 0.05|x9: 0.05|x10: 0.03|x11: 0.04|x12: 0.03|x13: 0.05|x14: 0.12|x15: 0.02|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.07|x6: 0.06|x7: 0.00|x8: 0.07|x9: 0.09|x10: 0.00|x11: 0.03|x12: 0.02|x13: 0.06|x14: 0.13|x15: 0.00|x16: 0.11|x17: 0.00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.24]</t>
+          <t>[0.00, 0.06, 0.25]</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[3, 14]</t>
+          <t>[1, 3, 14, 16]</t>
         </is>
       </c>
       <c r="G130" t="b">
@@ -5130,17 +5130,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.02|x3: 0.24|x4: 0.09|x5: 0.01|x6: 0.02|x7: 0.11|x8: 0.04|x9: 0.01|x10: 0.12|x11: 0.02|x12: 0.09|x13: 0.05|x14: 0.04|x15: 0.07|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.00|x3: 0.25|x4: 0.09|x5: 0.00|x6: 0.00|x7: 0.11|x8: 0.05|x9: 0.00|x10: 0.13|x11: 0.00|x12: 0.11|x13: 0.07|x14: 0.04|x15: 0.07|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.24]</t>
+          <t>[0.00, 0.06, 0.25]</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[3, 7, 10]</t>
+          <t>[3, 7, 10, 12]</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -5166,17 +5166,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.11|x3: 0.27|x4: 0.05|x5: 0.08|x6: 0.01|x7: 0.04|x8: 0.02|x9: 0.03|x10: 0.03|x11: 0.07|x12: 0.03|x13: 0.08|x14: 0.02|x15: 0.06|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.14|x3: 0.29|x4: 0.06|x5: 0.07|x6: 0.00|x7: 0.02|x8: 0.03|x9: 0.04|x10: 0.02|x11: 0.06|x12: 0.02|x13: 0.12|x14: 0.00|x15: 0.04|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.27]</t>
+          <t>[0.00, 0.06, 0.29]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[2, 3, 13]</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -5202,17 +5202,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.05|x3: 0.03|x4: 0.13|x5: 0.02|x6: 0.20|x7: 0.07|x8: 0.01|x9: 0.01|x10: 0.09|x11: 0.03|x12: 0.02|x13: 0.06|x14: 0.11|x15: 0.06|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.05|x3: 0.00|x4: 0.15|x5: 0.02|x6: 0.25|x7: 0.08|x8: 0.00|x9: 0.00|x10: 0.09|x11: 0.00|x12: 0.00|x13: 0.08|x14: 0.09|x15: 0.06|x16: 0.02|x17: 0.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.20]</t>
+          <t>[0.00, 0.06, 0.25]</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>[4, 6, 14]</t>
+          <t>[1, 4, 6]</t>
         </is>
       </c>
       <c r="G133" t="b">
@@ -5238,17 +5238,17 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.09|x3: 0.18|x4: 0.02|x5: 0.10|x6: 0.05|x7: 0.06|x8: 0.08|x9: 0.06|x10: 0.06|x11: 0.02|x12: 0.09|x13: 0.01|x14: 0.03|x15: 0.02|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.10|x3: 0.19|x4: 0.00|x5: 0.11|x6: 0.05|x7: 0.05|x8: 0.11|x9: 0.08|x10: 0.06|x11: 0.00|x12: 0.11|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.14|x17: 0.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.06, 0.19]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>[3, 5, 16]</t>
+          <t>[2, 3, 5, 8, 12, 16]</t>
         </is>
       </c>
       <c r="G134" t="b">
@@ -5274,24 +5274,24 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.14|x3: 0.10|x4: 0.02|x5: 0.08|x6: 0.14|x7: 0.02|x8: 0.05|x9: 0.04|x10: 0.03|x11: 0.05|x12: 0.05|x13: 0.02|x14: 0.06|x15: 0.03|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.15|x2: 0.18|x3: 0.09|x4: 0.00|x5: 0.06|x6: 0.17|x7: 0.00|x8: 0.07|x9: 0.07|x10: 0.00|x11: 0.02|x12: 0.05|x13: 0.00|x14: 0.05|x15: 0.00|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>[2, 3, 6]</t>
+          <t>[1, 2, 6]</t>
         </is>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -5310,17 +5310,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.02|x3: 0.07|x4: 0.03|x5: 0.04|x6: 0.01|x7: 0.08|x8: 0.12|x9: 0.14|x10: 0.10|x11: 0.07|x12: 0.07|x13: 0.05|x14: 0.04|x15: 0.01|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.16|x2: 0.00|x3: 0.04|x4: 0.02|x5: 0.04|x6: 0.00|x7: 0.08|x8: 0.14|x9: 0.16|x10: 0.09|x11: 0.05|x12: 0.07|x13: 0.06|x14: 0.03|x15: 0.00|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[1, 8, 9]</t>
         </is>
       </c>
       <c r="G136" t="b">
@@ -5346,12 +5346,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.04|x3: 0.05|x4: 0.24|x5: 0.06|x6: 0.07|x7: 0.07|x8: 0.06|x9: 0.07|x10: 0.08|x11: 0.03|x12: 0.02|x13: 0.04|x14: 0.03|x15: 0.02|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.04|x3: 0.03|x4: 0.28|x5: 0.05|x6: 0.06|x7: 0.06|x8: 0.08|x9: 0.10|x10: 0.07|x11: 0.00|x12: 0.00|x13: 0.04|x14: 0.00|x15: 0.01|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.24]</t>
+          <t>[0.00, 0.06, 0.28]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5382,12 +5382,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.11|x3: 0.02|x4: 0.29|x5: 0.04|x6: 0.08|x7: 0.05|x8: 0.04|x9: 0.04|x10: 0.06|x11: 0.03|x12: 0.04|x13: 0.03|x14: 0.05|x15: 0.04|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.15|x3: 0.00|x4: 0.35|x5: 0.03|x6: 0.08|x7: 0.05|x8: 0.05|x9: 0.05|x10: 0.06|x11: 0.02|x12: 0.05|x13: 0.03|x14: 0.03|x15: 0.03|x16: 0.05|x17: 0.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.29]</t>
+          <t>[0.00, 0.06, 0.35]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5418,17 +5418,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.09|x3: 0.04|x4: 0.19|x5: 0.05|x6: 0.02|x7: 0.06|x8: 0.03|x9: 0.03|x10: 0.06|x11: 0.03|x12: 0.02|x13: 0.08|x14: 0.13|x15: 0.10|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.02|x2: 0.12|x3: 0.02|x4: 0.22|x5: 0.02|x6: 0.00|x7: 0.05|x8: 0.04|x9: 0.05|x10: 0.05|x11: 0.00|x12: 0.00|x13: 0.12|x14: 0.14|x15: 0.10|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.22]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[4, 14, 15]</t>
+          <t>[2, 4, 13, 14, 15]</t>
         </is>
       </c>
       <c r="G139" t="b">
@@ -5454,17 +5454,17 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.15|x3: 0.04|x4: 0.01|x5: 0.02|x6: 0.15|x7: 0.01|x8: 0.01|x9: 0.01|x10: 0.02|x11: 0.10|x12: 0.04|x13: 0.15|x14: 0.06|x15: 0.14|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.22|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.18|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.08|x12: 0.04|x13: 0.22|x14: 0.05|x15: 0.12|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.22]</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>[2, 6, 11, 13, 15]</t>
+          <t>[2, 6, 13, 15]</t>
         </is>
       </c>
       <c r="G140" t="b">
@@ -5490,17 +5490,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.02|x3: 0.10|x4: 0.02|x5: 0.06|x6: 0.01|x7: 0.08|x8: 0.05|x9: 0.06|x10: 0.09|x11: 0.03|x12: 0.03|x13: 0.08|x14: 0.25|x15: 0.02|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.00|x3: 0.09|x4: 0.00|x5: 0.05|x6: 0.00|x7: 0.07|x8: 0.07|x9: 0.09|x10: 0.09|x11: 0.00|x12: 0.00|x13: 0.12|x14: 0.28|x15: 0.00|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.25]</t>
+          <t>[0.00, 0.06, 0.28]</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[13, 14]</t>
         </is>
       </c>
       <c r="G141" t="b">
@@ -5526,17 +5526,17 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.02|x3: 0.09|x4: 0.23|x5: 0.03|x6: 0.02|x7: 0.08|x8: 0.09|x9: 0.10|x10: 0.10|x11: 0.03|x12: 0.04|x13: 0.03|x14: 0.02|x15: 0.01|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.15|x2: 0.00|x3: 0.08|x4: 0.26|x5: 0.01|x6: 0.00|x7: 0.08|x8: 0.10|x9: 0.12|x10: 0.09|x11: 0.00|x12: 0.03|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.03|x17: 0.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.23]</t>
+          <t>[0.00, 0.06, 0.26]</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[1, 4, 8, 9]</t>
         </is>
       </c>
       <c r="G142" t="b">
@@ -5562,17 +5562,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.06|x3: 0.05|x4: 0.05|x5: 0.06|x6: 0.04|x7: 0.06|x8: 0.07|x9: 0.08|x10: 0.06|x11: 0.08|x12: 0.08|x13: 0.03|x14: 0.17|x15: 0.02|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.06|x3: 0.03|x4: 0.04|x5: 0.05|x6: 0.03|x7: 0.04|x8: 0.10|x9: 0.11|x10: 0.05|x11: 0.07|x12: 0.08|x13: 0.01|x14: 0.19|x15: 0.00|x16: 0.07|x17: 0.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.19]</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[9, 14]</t>
         </is>
       </c>
       <c r="G143" t="b">
@@ -5598,17 +5598,17 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.19|x3: 0.03|x4: 0.02|x5: 0.06|x6: 0.05|x7: 0.08|x8: 0.10|x9: 0.12|x10: 0.10|x11: 0.04|x12: 0.04|x13: 0.05|x14: 0.02|x15: 0.04|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.27|x3: 0.01|x4: 0.02|x5: 0.05|x6: 0.06|x7: 0.09|x8: 0.12|x9: 0.15|x10: 0.11|x11: 0.00|x12: 0.02|x13: 0.06|x14: 0.00|x15: 0.00|x16: 0.04|x17: 0.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.27]</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>[2, 8, 9]</t>
+          <t>[2, 8, 9, 10]</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -5634,17 +5634,17 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.07|x3: 0.03|x4: 0.06|x5: 0.05|x6: 0.01|x7: 0.07|x8: 0.10|x9: 0.12|x10: 0.08|x11: 0.06|x12: 0.07|x13: 0.09|x14: 0.04|x15: 0.04|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.07|x3: 0.01|x4: 0.06|x5: 0.05|x6: 0.00|x7: 0.07|x8: 0.13|x9: 0.15|x10: 0.08|x11: 0.03|x12: 0.07|x13: 0.11|x14: 0.03|x15: 0.03|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.15]</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[8, 9, 13]</t>
         </is>
       </c>
       <c r="G145" t="b">
@@ -5670,17 +5670,17 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.04|x3: 0.03|x4: 0.04|x5: 0.08|x6: 0.05|x7: 0.04|x8: 0.16|x9: 0.20|x10: 0.05|x11: 0.05|x12: 0.05|x13: 0.01|x14: 0.04|x15: 0.03|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.07|x2: 0.02|x3: 0.02|x4: 0.04|x5: 0.09|x6: 0.05|x7: 0.04|x8: 0.19|x9: 0.24|x10: 0.05|x11: 0.00|x12: 0.04|x13: 0.00|x14: 0.02|x15: 0.03|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.20]</t>
+          <t>[0.00, 0.06, 0.24]</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[8, 9, 16]</t>
         </is>
       </c>
       <c r="G146" t="b">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.05|x3: 0.02|x4: 0.04|x5: 0.07|x6: 0.11|x7: 0.02|x8: 0.15|x9: 0.19|x10: 0.02|x11: 0.06|x12: 0.07|x13: 0.04|x14: 0.05|x15: 0.02|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.03|x2: 0.05|x3: 0.00|x4: 0.02|x5: 0.07|x6: 0.13|x7: 0.00|x8: 0.20|x9: 0.24|x10: 0.00|x11: 0.01|x12: 0.07|x13: 0.05|x14: 0.03|x15: 0.00|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.24]</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5742,17 +5742,17 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.02|x3: 0.03|x4: 0.01|x5: 0.04|x6: 0.01|x7: 0.10|x8: 0.15|x9: 0.20|x10: 0.12|x11: 0.06|x12: 0.03|x13: 0.10|x14: 0.02|x15: 0.02|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.09|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.03|x6: 0.00|x7: 0.10|x8: 0.19|x9: 0.26|x10: 0.12|x11: 0.00|x12: 0.00|x13: 0.14|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.20]</t>
+          <t>[0.00, 0.06, 0.26]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>[7, 8, 9, 10]</t>
+          <t>[8, 9, 10, 13]</t>
         </is>
       </c>
       <c r="G148" t="b">
@@ -5778,17 +5778,17 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.10|x3: 0.10|x4: 0.12|x5: 0.12|x6: 0.06|x7: 0.02|x8: 0.09|x9: 0.10|x10: 0.02|x11: 0.03|x12: 0.04|x13: 0.01|x14: 0.03|x15: 0.05|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.13|x3: 0.10|x4: 0.13|x5: 0.12|x6: 0.06|x7: 0.00|x8: 0.12|x9: 0.14|x10: 0.00|x11: 0.00|x12: 0.04|x13: 0.00|x14: 0.00|x15: 0.04|x16: 0.11|x17: 0.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.12]</t>
+          <t>[0.00, 0.06, 0.14]</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>[2, 4, 5]</t>
+          <t>[2, 3, 4, 5, 8, 9, 16]</t>
         </is>
       </c>
       <c r="G149" t="b">
@@ -5814,17 +5814,17 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.02|x3: 0.02|x4: 0.19|x5: 0.07|x6: 0.02|x7: 0.02|x8: 0.07|x9: 0.08|x10: 0.02|x11: 0.07|x12: 0.06|x13: 0.08|x14: 0.11|x15: 0.02|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.04|x2: 0.00|x3: 0.00|x4: 0.21|x5: 0.07|x6: 0.00|x7: 0.00|x8: 0.10|x9: 0.12|x10: 0.00|x11: 0.05|x12: 0.06|x13: 0.10|x14: 0.10|x15: 0.00|x16: 0.12|x17: 0.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>[4, 14]</t>
+          <t>[4, 8, 9, 13, 14, 16]</t>
         </is>
       </c>
       <c r="G150" t="b">
@@ -5850,17 +5850,17 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.08|x3: 0.14|x4: 0.06|x5: 0.01|x6: 0.03|x7: 0.14|x8: 0.03|x9: 0.04|x10: 0.15|x11: 0.06|x12: 0.04|x13: 0.08|x14: 0.08|x15: 0.03|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.05|x2: 0.10|x3: 0.14|x4: 0.07|x5: 0.00|x6: 0.02|x7: 0.14|x8: 0.03|x9: 0.04|x10: 0.17|x11: 0.04|x12: 0.03|x13: 0.08|x14: 0.07|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>[3, 7, 10]</t>
+          <t>[2, 3, 7, 10]</t>
         </is>
       </c>
       <c r="G151" t="b">
@@ -5886,17 +5886,17 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.01|x3: 0.05|x4: 0.06|x5: 0.01|x6: 0.03|x7: 0.08|x8: 0.07|x9: 0.11|x10: 0.10|x11: 0.26|x12: 0.10|x13: 0.04|x14: 0.03|x15: 0.01|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.06|x5: 0.00|x6: 0.03|x7: 0.07|x8: 0.10|x9: 0.14|x10: 0.09|x11: 0.30|x12: 0.10|x13: 0.05|x14: 0.03|x15: 0.00|x16: 0.03|x17: 0.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.26]</t>
+          <t>[0.00, 0.06, 0.30]</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>[9, 10, 11]</t>
+          <t>[8, 9, 11, 12]</t>
         </is>
       </c>
       <c r="G152" t="b">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.02|x3: 0.02|x4: 0.07|x5: 0.09|x6: 0.02|x7: 0.07|x8: 0.10|x9: 0.13|x10: 0.08|x11: 0.03|x12: 0.03|x13: 0.05|x14: 0.18|x15: 0.01|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.08|x5: 0.10|x6: 0.00|x7: 0.07|x8: 0.12|x9: 0.16|x10: 0.08|x11: 0.00|x12: 0.00|x13: 0.07|x14: 0.18|x15: 0.00|x16: 0.12|x17: 0.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>[9, 14]</t>
+          <t>[5, 8, 9, 14, 16]</t>
         </is>
       </c>
       <c r="G153" t="b">
@@ -5958,17 +5958,17 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.03|x3: 0.06|x4: 0.13|x5: 0.05|x6: 0.04|x7: 0.04|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.08|x12: 0.05|x13: 0.06|x14: 0.05|x15: 0.09|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.03|x3: 0.03|x4: 0.14|x5: 0.04|x6: 0.04|x7: 0.03|x8: 0.08|x9: 0.09|x10: 0.03|x11: 0.07|x12: 0.05|x13: 0.08|x14: 0.04|x15: 0.09|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.13]</t>
+          <t>[0.00, 0.06, 0.14]</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[1, 4]</t>
         </is>
       </c>
       <c r="G154" t="b">
@@ -5994,17 +5994,17 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.14|x3: 0.05|x4: 0.01|x5: 0.09|x6: 0.02|x7: 0.06|x8: 0.09|x9: 0.08|x10: 0.07|x11: 0.05|x12: 0.10|x13: 0.02|x14: 0.06|x15: 0.03|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.18|x3: 0.04|x4: 0.00|x5: 0.09|x6: 0.00|x7: 0.06|x8: 0.11|x9: 0.09|x10: 0.07|x11: 0.03|x12: 0.13|x13: 0.00|x14: 0.05|x15: 0.00|x16: 0.09|x17: 0.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>[2, 12]</t>
+          <t>[2, 8, 12]</t>
         </is>
       </c>
       <c r="G155" t="b">
@@ -6030,17 +6030,17 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.08|x3: 0.03|x4: 0.07|x5: 0.08|x6: 0.02|x7: 0.04|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.06|x12: 0.08|x13: 0.09|x14: 0.10|x15: 0.03|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.02|x2: 0.08|x3: 0.00|x4: 0.06|x5: 0.07|x6: 0.00|x7: 0.02|x8: 0.12|x9: 0.12|x10: 0.03|x11: 0.04|x12: 0.09|x13: 0.13|x14: 0.09|x15: 0.00|x16: 0.13|x17: 0.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.10]</t>
+          <t>[0.00, 0.06, 0.13]</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[8, 9, 13, 16]</t>
         </is>
       </c>
       <c r="G156" t="b">
@@ -6066,17 +6066,17 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.08|x3: 0.02|x4: 0.01|x5: 0.02|x6: 0.05|x7: 0.02|x8: 0.06|x9: 0.07|x10: 0.03|x11: 0.06|x12: 0.04|x13: 0.04|x14: 0.17|x15: 0.23|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.11|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.06|x7: 0.01|x8: 0.07|x9: 0.09|x10: 0.01|x11: 0.04|x12: 0.02|x13: 0.06|x14: 0.19|x15: 0.27|x16: 0.01|x17: 0.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.23]</t>
+          <t>[0.00, 0.06, 0.27]</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>[14, 15]</t>
+          <t>[2, 14, 15]</t>
         </is>
       </c>
       <c r="G157" t="b">
@@ -6102,17 +6102,17 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.05|x3: 0.03|x4: 0.02|x5: 0.06|x6: 0.09|x7: 0.02|x8: 0.07|x9: 0.09|x10: 0.01|x11: 0.11|x12: 0.07|x13: 0.06|x14: 0.17|x15: 0.03|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.06|x2: 0.05|x3: 0.02|x4: 0.02|x5: 0.07|x6: 0.10|x7: 0.00|x8: 0.08|x9: 0.11|x10: 0.00|x11: 0.10|x12: 0.07|x13: 0.05|x14: 0.19|x15: 0.00|x16: 0.08|x17: 0.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.19]</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>[11, 14]</t>
+          <t>[9, 14]</t>
         </is>
       </c>
       <c r="G158" t="b">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.06|x3: 0.09|x4: 0.05|x5: 0.04|x6: 0.07|x7: 0.05|x8: 0.07|x9: 0.08|x10: 0.05|x11: 0.07|x12: 0.07|x13: 0.01|x14: 0.12|x15: 0.08|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.07|x3: 0.09|x4: 0.05|x5: 0.04|x6: 0.08|x7: 0.04|x8: 0.09|x9: 0.10|x10: 0.04|x11: 0.06|x12: 0.07|x13: 0.00|x14: 0.12|x15: 0.08|x16: 0.06|x17: 0.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[9, 14]</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -6174,17 +6174,17 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.09|x3: 0.02|x4: 0.17|x5: 0.02|x6: 0.02|x7: 0.03|x8: 0.08|x9: 0.06|x10: 0.04|x11: 0.05|x12: 0.11|x13: 0.03|x14: 0.09|x15: 0.10|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.10|x2: 0.11|x3: 0.00|x4: 0.19|x5: 0.00|x6: 0.00|x7: 0.02|x8: 0.09|x9: 0.06|x10: 0.03|x11: 0.04|x12: 0.15|x13: 0.02|x14: 0.09|x15: 0.11|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.06, 0.19]</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>[4, 12, 15]</t>
+          <t>[2, 4, 12, 15]</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -6210,17 +6210,17 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.08|x3: 0.03|x4: 0.03|x5: 0.02|x6: 0.01|x7: 0.03|x8: 0.04|x9: 0.04|x10: 0.04|x11: 0.04|x12: 0.03|x13: 0.15|x14: 0.06|x15: 0.28|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.08|x2: 0.11|x3: 0.00|x4: 0.03|x5: 0.01|x6: 0.00|x7: 0.02|x8: 0.04|x9: 0.04|x10: 0.03|x11: 0.00|x12: 0.02|x13: 0.23|x14: 0.05|x15: 0.33|x16: 0.01|x17: 0.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.28]</t>
+          <t>[0.00, 0.06, 0.33]</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>[13, 15]</t>
+          <t>[2, 13, 15]</t>
         </is>
       </c>
       <c r="G161" t="b">
@@ -6246,17 +6246,17 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.05|x3: 0.11|x4: 0.08|x5: 0.08|x6: 0.05|x7: 0.08|x8: 0.02|x9: 0.02|x10: 0.09|x11: 0.06|x12: 0.03|x13: 0.08|x14: 0.06|x15: 0.08|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.04|x3: 0.09|x4: 0.09|x5: 0.08|x6: 0.05|x7: 0.07|x8: 0.03|x9: 0.03|x10: 0.08|x11: 0.05|x12: 0.02|x13: 0.12|x14: 0.04|x15: 0.08|x16: 0.12|x17: 0.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.11]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[13, 16]</t>
         </is>
       </c>
       <c r="G162" t="b">
@@ -6282,17 +6282,17 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.09|x3: 0.16|x4: 0.03|x5: 0.15|x6: 0.01|x7: 0.03|x8: 0.08|x9: 0.10|x10: 0.03|x11: 0.07|x12: 0.03|x13: 0.02|x14: 0.03|x15: 0.02|x16: 0.14|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.11|x3: 0.17|x4: 0.02|x5: 0.17|x6: 0.00|x7: 0.01|x8: 0.10|x9: 0.13|x10: 0.01|x11: 0.06|x12: 0.02|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.18|x17: 0.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.06, 0.18]</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>[3, 5, 9, 16]</t>
+          <t>[2, 3, 5, 8, 9, 16]</t>
         </is>
       </c>
       <c r="G163" t="b">
@@ -6318,17 +6318,17 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.11|x3: 0.04|x4: 0.14|x5: 0.09|x6: 0.02|x7: 0.01|x8: 0.06|x9: 0.04|x10: 0.02|x11: 0.04|x12: 0.05|x13: 0.09|x14: 0.03|x15: 0.04|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.16|x2: 0.15|x3: 0.02|x4: 0.16|x5: 0.09|x6: 0.00|x7: 0.00|x8: 0.05|x9: 0.04|x10: 0.00|x11: 0.01|x12: 0.05|x13: 0.13|x14: 0.01|x15: 0.02|x16: 0.11|x17: 0.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.14]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>[2, 4, 16]</t>
+          <t>[1, 2, 4, 13, 16]</t>
         </is>
       </c>
       <c r="G164" t="b">
@@ -6354,17 +6354,17 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.04|x3: 0.25|x4: 0.10|x5: 0.09|x6: 0.05|x7: 0.05|x8: 0.04|x9: 0.02|x10: 0.06|x11: 0.03|x12: 0.05|x13: 0.01|x14: 0.05|x15: 0.02|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.14|x2: 0.03|x3: 0.27|x4: 0.10|x5: 0.09|x6: 0.04|x7: 0.03|x8: 0.04|x9: 0.03|x10: 0.04|x11: 0.02|x12: 0.05|x13: 0.00|x14: 0.03|x15: 0.00|x16: 0.10|x17: 0.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.25]</t>
+          <t>[0.00, 0.06, 0.27]</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[1, 3, 4]</t>
         </is>
       </c>
       <c r="G165" t="b">

--- a/Project_python/out/LDA/test.xlsx
+++ b/Project_python/out/LDA/test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
